--- a/static/Models/Classification/Equation/Automobiles.xlsx
+++ b/static/Models/Classification/Equation/Automobiles.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.1419503390789032</v>
+        <v>-0.3603734970092773</v>
       </c>
       <c r="C2">
-        <v>2.952187061309814</v>
+        <v>2.867900848388672</v>
       </c>
       <c r="D2">
-        <v>1.114406228065491</v>
+        <v>-0.1229947954416275</v>
       </c>
       <c r="E2">
-        <v>-4.178918838500977</v>
+        <v>-3.913290500640869</v>
       </c>
       <c r="F2">
-        <v>0.4970279633998871</v>
+        <v>1.307534456253052</v>
       </c>
       <c r="G2">
-        <v>-2.071184396743774</v>
+        <v>-1.589880347251892</v>
       </c>
       <c r="H2">
-        <v>0.1714720726013184</v>
+        <v>1.199564576148987</v>
       </c>
       <c r="I2">
-        <v>3.666572093963623</v>
+        <v>3.745785474777222</v>
       </c>
       <c r="J2">
-        <v>-5.87246036529541</v>
+        <v>-4.726731300354004</v>
       </c>
       <c r="K2">
-        <v>-2.196038484573364</v>
+        <v>-2.198377132415771</v>
       </c>
       <c r="L2">
-        <v>0.3924150466918945</v>
+        <v>-0.01108859665691853</v>
       </c>
       <c r="M2">
-        <v>-0.8933268189430237</v>
+        <v>0.1376042068004608</v>
       </c>
       <c r="N2">
-        <v>-0.3012402653694153</v>
+        <v>-0.02321015484631062</v>
       </c>
       <c r="O2">
-        <v>-10.16869258880615</v>
+        <v>-9.656956672668457</v>
       </c>
       <c r="P2">
-        <v>2.920367479324341</v>
+        <v>3.778326988220215</v>
       </c>
       <c r="Q2">
-        <v>-9.744236946105957</v>
+        <v>-9.005030632019043</v>
       </c>
       <c r="R2">
-        <v>-0.8953846096992493</v>
+        <v>-1.241986989974976</v>
       </c>
       <c r="S2">
-        <v>-2.706496477127075</v>
+        <v>-2.575711965560913</v>
       </c>
       <c r="T2">
-        <v>-1.122120380401611</v>
+        <v>-0.4694993793964386</v>
       </c>
       <c r="U2">
-        <v>1.001258134841919</v>
+        <v>0.9263400435447693</v>
       </c>
       <c r="V2">
-        <v>-1.395108103752136</v>
+        <v>-1.533625364303589</v>
       </c>
       <c r="W2">
-        <v>-5.386637210845947</v>
+        <v>-5.049221515655518</v>
       </c>
       <c r="X2">
-        <v>-1.940520882606506</v>
+        <v>-1.237542510032654</v>
       </c>
       <c r="Y2">
-        <v>-8.205558776855469</v>
+        <v>-7.568424224853516</v>
       </c>
       <c r="Z2">
-        <v>-5.671633720397949</v>
+        <v>-5.930093288421631</v>
       </c>
       <c r="AA2">
-        <v>-0.02966472879052162</v>
+        <v>0.7571920156478882</v>
       </c>
       <c r="AB2">
-        <v>0.3809751272201538</v>
+        <v>-0.2805504202842712</v>
       </c>
       <c r="AC2">
-        <v>3.870298147201538</v>
+        <v>4.61163330078125</v>
       </c>
       <c r="AD2">
-        <v>-1.828925848007202</v>
+        <v>-2.447268962860107</v>
       </c>
       <c r="AE2">
-        <v>-8.732735633850098</v>
+        <v>-9.800738334655762</v>
       </c>
       <c r="AF2">
-        <v>-0.1437416970729828</v>
+        <v>0.4068824350833893</v>
       </c>
       <c r="AG2">
-        <v>5.838887214660645</v>
+        <v>6.176837921142578</v>
       </c>
       <c r="AH2">
-        <v>-6.674777984619141</v>
+        <v>-5.840840816497803</v>
       </c>
       <c r="AI2">
-        <v>-11.2296085357666</v>
+        <v>-10.4019603729248</v>
       </c>
       <c r="AJ2">
-        <v>-0.8339951634407043</v>
+        <v>-1.055734395980835</v>
       </c>
       <c r="AK2">
-        <v>-0.5400844216346741</v>
+        <v>-0.2526895105838776</v>
       </c>
       <c r="AL2">
-        <v>0.3174786269664764</v>
+        <v>0.5412458181381226</v>
       </c>
       <c r="AM2">
-        <v>5.905441284179688</v>
+        <v>5.638941764831543</v>
       </c>
       <c r="AN2">
-        <v>7.967171669006348</v>
+        <v>9.062606811523438</v>
       </c>
       <c r="AO2">
-        <v>-5.983504772186279</v>
+        <v>-4.578675270080566</v>
       </c>
       <c r="AP2">
-        <v>2.573992967605591</v>
+        <v>3.173331260681152</v>
       </c>
       <c r="AQ2">
-        <v>-0.3959232568740845</v>
+        <v>0.1017193347215652</v>
       </c>
       <c r="AR2">
-        <v>11.58115005493164</v>
+        <v>11.45941734313965</v>
       </c>
       <c r="AS2">
-        <v>10.28545951843262</v>
+        <v>10.47805881500244</v>
       </c>
       <c r="AT2">
-        <v>-5.014316082000732</v>
+        <v>-4.640103816986084</v>
       </c>
       <c r="AU2">
-        <v>-17.85776519775391</v>
+        <v>-18.86269378662109</v>
       </c>
       <c r="AV2">
-        <v>9.851828575134277</v>
+        <v>10.75696754455566</v>
       </c>
       <c r="AW2">
-        <v>1.613759517669678</v>
+        <v>0.5541061758995056</v>
       </c>
       <c r="AX2">
-        <v>0.9234864711761475</v>
+        <v>0.8814199566841125</v>
       </c>
       <c r="AY2">
-        <v>-3.988808393478394</v>
+        <v>-4.230568885803223</v>
       </c>
       <c r="AZ2">
-        <v>-1.786368250846863</v>
+        <v>-1.507353186607361</v>
       </c>
       <c r="BA2">
-        <v>-0.6371651291847229</v>
+        <v>0.5679081082344055</v>
       </c>
       <c r="BB2">
-        <v>-0.9843190908432007</v>
+        <v>0.1165708750486374</v>
       </c>
       <c r="BC2">
-        <v>-3.081418037414551</v>
+        <v>-2.748818159103394</v>
       </c>
       <c r="BD2">
-        <v>-1.609322190284729</v>
+        <v>-1.893467783927917</v>
       </c>
       <c r="BE2">
-        <v>-1.351980805397034</v>
+        <v>-1.467773199081421</v>
       </c>
       <c r="BF2">
-        <v>-2.895835399627686</v>
+        <v>-2.273820161819458</v>
       </c>
       <c r="BG2">
-        <v>1.881548166275024</v>
+        <v>1.656554698944092</v>
       </c>
       <c r="BH2">
-        <v>1.743543028831482</v>
+        <v>2.094259262084961</v>
       </c>
       <c r="BI2">
-        <v>-3.381980895996094</v>
+        <v>-2.493655920028687</v>
       </c>
       <c r="BJ2">
-        <v>3.293351173400879</v>
+        <v>3.575813293457031</v>
       </c>
       <c r="BK2">
-        <v>-0.2385959625244141</v>
+        <v>-0.634375274181366</v>
       </c>
       <c r="BL2">
-        <v>2.237080097198486</v>
+        <v>1.795727849006653</v>
       </c>
       <c r="BM2">
-        <v>9.732762336730957</v>
+        <v>10.21340370178223</v>
       </c>
       <c r="BN2">
-        <v>9.462162971496582</v>
+        <v>8.964587211608887</v>
       </c>
       <c r="BO2">
-        <v>2.351732730865479</v>
+        <v>2.539172410964966</v>
       </c>
       <c r="BP2">
-        <v>4.767864227294922</v>
+        <v>3.848734617233276</v>
       </c>
       <c r="BQ2">
-        <v>-1.858539819717407</v>
+        <v>-1.600786447525024</v>
       </c>
       <c r="BR2">
-        <v>0.1119526997208595</v>
+        <v>0.0979238748550415</v>
       </c>
       <c r="BS2">
-        <v>1.239001393318176</v>
+        <v>0.03547168523073196</v>
       </c>
       <c r="BT2">
-        <v>0.1964111477136612</v>
+        <v>0.7463854551315308</v>
       </c>
       <c r="BU2">
-        <v>0.9151076078414917</v>
+        <v>0.8397675156593323</v>
       </c>
       <c r="BV2">
-        <v>-8.293684959411621</v>
+        <v>-7.913863658905029</v>
       </c>
       <c r="BW2">
-        <v>0.3443634510040283</v>
+        <v>0.977795422077179</v>
       </c>
       <c r="BX2">
-        <v>-11.10195732116699</v>
+        <v>-9.910426139831543</v>
       </c>
       <c r="BY2">
-        <v>-0.4025339484214783</v>
+        <v>-1.587555527687073</v>
       </c>
       <c r="BZ2">
-        <v>-3.568181276321411</v>
+        <v>-2.659159183502197</v>
       </c>
       <c r="CA2">
-        <v>2.968142986297607</v>
+        <v>1.77823793888092</v>
       </c>
       <c r="CB2">
-        <v>4.552759170532227</v>
+        <v>4.81145715713501</v>
       </c>
       <c r="CC2">
-        <v>-0.3698269128799438</v>
+        <v>-0.8683781027793884</v>
       </c>
       <c r="CD2">
-        <v>1.194051504135132</v>
+        <v>0.772010862827301</v>
       </c>
       <c r="CE2">
-        <v>-0.9287428259849548</v>
+        <v>0.3568222522735596</v>
       </c>
       <c r="CF2">
-        <v>7.672553539276123</v>
+        <v>8.608710289001465</v>
       </c>
       <c r="CG2">
-        <v>-1.464290261268616</v>
+        <v>-0.9445917010307312</v>
       </c>
       <c r="CH2">
-        <v>-14.13144683837891</v>
+        <v>-14.28843307495117</v>
       </c>
       <c r="CI2">
-        <v>-1.55076265335083</v>
+        <v>-2.03703236579895</v>
       </c>
       <c r="CJ2">
-        <v>11.65717124938965</v>
+        <v>10.45915031433105</v>
       </c>
       <c r="CK2">
-        <v>-1.451481223106384</v>
+        <v>-1.367590308189392</v>
       </c>
       <c r="CL2">
-        <v>-0.8407209515571594</v>
+        <v>-0.874650239944458</v>
       </c>
       <c r="CM2">
-        <v>-1.679139375686646</v>
+        <v>-0.9978404641151428</v>
       </c>
       <c r="CN2">
-        <v>0.9658912420272827</v>
+        <v>-0.06460998207330704</v>
       </c>
       <c r="CO2">
-        <v>0.5727645754814148</v>
+        <v>0.76679527759552</v>
       </c>
       <c r="CP2">
-        <v>-4.8807692527771</v>
+        <v>-4.098361492156982</v>
       </c>
       <c r="CQ2">
-        <v>12.33046054840088</v>
+        <v>13.14862251281738</v>
       </c>
       <c r="CR2">
-        <v>0.4843175411224365</v>
+        <v>-0.4182551205158234</v>
       </c>
       <c r="CS2">
-        <v>-0.294113963842392</v>
+        <v>-0.8532993197441101</v>
       </c>
       <c r="CT2">
-        <v>1.167670369148254</v>
+        <v>0.8411890864372253</v>
       </c>
       <c r="CU2">
-        <v>-1.398460507392883</v>
+        <v>-1.775404930114746</v>
       </c>
       <c r="CV2">
-        <v>-0.0707821249961853</v>
+        <v>0.1676610261201859</v>
       </c>
       <c r="CW2">
-        <v>-11.49197673797607</v>
+        <v>-11.98884868621826</v>
       </c>
       <c r="CX2">
-        <v>0.2615470290184021</v>
+        <v>-0.3756748735904694</v>
       </c>
       <c r="CY2">
-        <v>1.507715702056885</v>
+        <v>0.4512828290462494</v>
       </c>
       <c r="CZ2">
-        <v>0.5169729590415955</v>
+        <v>1.402673959732056</v>
       </c>
       <c r="DA2">
-        <v>3.39085578918457</v>
+        <v>3.83630633354187</v>
       </c>
       <c r="DB2">
-        <v>-1.841970086097717</v>
+        <v>-1.635166168212891</v>
       </c>
       <c r="DC2">
-        <v>-0.9005091190338135</v>
+        <v>-0.8686254620552063</v>
       </c>
       <c r="DD2">
-        <v>-9.011735916137695</v>
+        <v>-7.987994194030762</v>
       </c>
       <c r="DE2">
-        <v>3.659957408905029</v>
+        <v>3.126923561096191</v>
       </c>
       <c r="DF2">
-        <v>5.781394004821777</v>
+        <v>6.188069820404053</v>
       </c>
       <c r="DG2">
-        <v>-1.446644425392151</v>
+        <v>-1.12906277179718</v>
       </c>
       <c r="DH2">
-        <v>-3.083335876464844</v>
+        <v>-1.895683288574219</v>
       </c>
       <c r="DI2">
-        <v>-3.774930953979492</v>
+        <v>-4.126290798187256</v>
       </c>
       <c r="DJ2">
-        <v>5.933156967163086</v>
+        <v>4.781715869903564</v>
       </c>
       <c r="DK2">
-        <v>-11.87610244750977</v>
+        <v>-12.2057523727417</v>
       </c>
       <c r="DL2">
-        <v>-17.5303897857666</v>
+        <v>-16.99975967407227</v>
       </c>
       <c r="DM2">
-        <v>-2.045937776565552</v>
+        <v>-1.517827153205872</v>
       </c>
       <c r="DN2">
-        <v>1.702419877052307</v>
+        <v>1.269187569618225</v>
       </c>
       <c r="DO2">
-        <v>-0.2489498406648636</v>
+        <v>0.05685804039239883</v>
       </c>
       <c r="DP2">
-        <v>2.127981424331665</v>
+        <v>2.230284452438354</v>
       </c>
       <c r="DQ2">
-        <v>2.46889066696167</v>
+        <v>2.230152368545532</v>
       </c>
       <c r="DR2">
-        <v>-0.7727968692779541</v>
+        <v>-0.03379999473690987</v>
       </c>
       <c r="DS2">
-        <v>-0.6689451336860657</v>
+        <v>-0.6838736534118652</v>
       </c>
       <c r="DT2">
-        <v>-2.009056329727173</v>
+        <v>-2.747366189956665</v>
       </c>
       <c r="DU2">
-        <v>4.613762378692627</v>
+        <v>5.642271041870117</v>
       </c>
       <c r="DV2">
-        <v>-0.5448316931724548</v>
+        <v>0.2669329047203064</v>
       </c>
       <c r="DW2">
-        <v>-1.047829985618591</v>
+        <v>-0.1329121738672256</v>
       </c>
       <c r="DX2">
-        <v>2.773455619812012</v>
+        <v>2.198348999023438</v>
       </c>
       <c r="DY2">
-        <v>9.600682258605957</v>
+        <v>8.394211769104004</v>
       </c>
       <c r="DZ2">
-        <v>-0.000585319590754807</v>
+        <v>0.5151525139808655</v>
       </c>
       <c r="EA2">
-        <v>-1.036986231803894</v>
+        <v>-1.938493967056274</v>
       </c>
       <c r="EB2">
-        <v>-1.092035531997681</v>
+        <v>-1.424931526184082</v>
       </c>
       <c r="EC2">
-        <v>-2.965031385421753</v>
+        <v>-3.422922134399414</v>
       </c>
       <c r="ED2">
-        <v>2.433824777603149</v>
+        <v>3.302619934082031</v>
       </c>
       <c r="EE2">
-        <v>-2.201204299926758</v>
+        <v>-2.20672607421875</v>
       </c>
       <c r="EF2">
-        <v>-3.88662576675415</v>
+        <v>-3.249610185623169</v>
       </c>
       <c r="EG2">
-        <v>-2.570770263671875</v>
+        <v>-2.877141237258911</v>
       </c>
       <c r="EH2">
-        <v>-11.83927345275879</v>
+        <v>-11.53661918640137</v>
       </c>
       <c r="EI2">
-        <v>0.1077852323651314</v>
+        <v>0.8674461841583252</v>
       </c>
       <c r="EJ2">
-        <v>7.920646667480469</v>
+        <v>8.519586563110352</v>
       </c>
       <c r="EK2">
-        <v>-0.4041202068328857</v>
+        <v>-0.2343392968177795</v>
       </c>
       <c r="EL2">
-        <v>-0.1036445796489716</v>
+        <v>-0.03385834768414497</v>
       </c>
       <c r="EM2">
-        <v>-5.56362247467041</v>
+        <v>-4.568553924560547</v>
       </c>
       <c r="EN2">
-        <v>0.5739821195602417</v>
+        <v>1.626763939857483</v>
       </c>
       <c r="EO2">
-        <v>1.735071063041687</v>
+        <v>1.8963942527771</v>
       </c>
       <c r="EP2">
-        <v>-7.799667358398438</v>
+        <v>-7.798670291900635</v>
       </c>
       <c r="EQ2">
-        <v>-4.446173667907715</v>
+        <v>-3.398887634277344</v>
       </c>
       <c r="ER2">
-        <v>2.148863315582275</v>
+        <v>1.9862459897995</v>
       </c>
       <c r="ES2">
-        <v>-16.20520401000977</v>
+        <v>-15.31695365905762</v>
       </c>
       <c r="ET2">
-        <v>3.005209445953369</v>
+        <v>4.071245193481445</v>
       </c>
       <c r="EU2">
-        <v>10.20098114013672</v>
+        <v>10.08951950073242</v>
       </c>
       <c r="EV2">
-        <v>2.489705801010132</v>
+        <v>3.090051651000977</v>
       </c>
       <c r="EW2">
-        <v>1.148793458938599</v>
+        <v>-0.2333673238754272</v>
       </c>
       <c r="EX2">
-        <v>-7.449622631072998</v>
+        <v>-7.505086421966553</v>
       </c>
       <c r="EY2">
-        <v>1.090421199798584</v>
+        <v>0.8600922822952271</v>
       </c>
       <c r="EZ2">
-        <v>-1.731866359710693</v>
+        <v>-2.985535860061646</v>
       </c>
       <c r="FA2">
-        <v>1.291867136955261</v>
+        <v>0.1199057921767235</v>
       </c>
       <c r="FB2">
-        <v>0.2842092216014862</v>
+        <v>-0.08200994879007339</v>
       </c>
       <c r="FC2">
-        <v>-3.649666547775269</v>
+        <v>-2.75937294960022</v>
       </c>
       <c r="FD2">
-        <v>-1.279922723770142</v>
+        <v>-0.5424256920814514</v>
       </c>
       <c r="FE2">
-        <v>-3.25470232963562</v>
+        <v>-2.93103814125061</v>
       </c>
       <c r="FF2">
-        <v>3.066555976867676</v>
+        <v>3.760694980621338</v>
       </c>
       <c r="FG2">
-        <v>-4.98079776763916</v>
+        <v>-5.122900009155273</v>
       </c>
       <c r="FH2">
-        <v>0.7402496337890625</v>
+        <v>1.525086879730225</v>
       </c>
       <c r="FI2">
-        <v>0.2409839481115341</v>
+        <v>0.7095882296562195</v>
       </c>
       <c r="FJ2">
-        <v>2.997142553329468</v>
+        <v>3.630944967269897</v>
       </c>
       <c r="FK2">
-        <v>9.08051872253418</v>
+        <v>9.312798500061035</v>
       </c>
       <c r="FL2">
-        <v>4.544186592102051</v>
+        <v>3.86444091796875</v>
       </c>
       <c r="FM2">
-        <v>2.678990602493286</v>
+        <v>2.905949354171753</v>
       </c>
       <c r="FN2">
-        <v>1.002946257591248</v>
+        <v>1.449627161026001</v>
       </c>
       <c r="FO2">
-        <v>2.021557331085205</v>
+        <v>1.387603640556335</v>
       </c>
       <c r="FP2">
-        <v>-0.257449746131897</v>
+        <v>-0.9994050264358521</v>
       </c>
       <c r="FQ2">
-        <v>0.7579323053359985</v>
+        <v>0.8260887861251831</v>
       </c>
       <c r="FR2">
-        <v>2.114778518676758</v>
+        <v>1.875454425811768</v>
       </c>
       <c r="FS2">
-        <v>-0.9404653310775757</v>
+        <v>-1.092400670051575</v>
       </c>
       <c r="FT2">
-        <v>-1.624916911125183</v>
+        <v>-1.550707101821899</v>
       </c>
       <c r="FU2">
-        <v>2.451475620269775</v>
+        <v>3.427443981170654</v>
       </c>
       <c r="FV2">
-        <v>-1.029520392417908</v>
+        <v>-0.9772697687149048</v>
       </c>
       <c r="FW2">
-        <v>-3.9346022605896</v>
+        <v>-3.397078037261963</v>
       </c>
       <c r="FX2">
-        <v>-0.8430352807044983</v>
+        <v>-0.2184803187847137</v>
       </c>
       <c r="FY2">
-        <v>0.7847360372543335</v>
+        <v>-0.2764907777309418</v>
       </c>
       <c r="FZ2">
-        <v>0.1914342045783997</v>
+        <v>0.09995827823877335</v>
       </c>
       <c r="GA2">
-        <v>-1.015987873077393</v>
+        <v>-0.7372719049453735</v>
       </c>
       <c r="GB2">
-        <v>0.1691902726888657</v>
+        <v>-0.9566182494163513</v>
       </c>
       <c r="GC2">
-        <v>0.4884983003139496</v>
+        <v>0.4493282437324524</v>
       </c>
       <c r="GD2">
-        <v>-1.581852316856384</v>
+        <v>-0.7341927289962769</v>
       </c>
       <c r="GE2">
-        <v>1.71072793006897</v>
+        <v>1.682463049888611</v>
       </c>
       <c r="GF2">
-        <v>1.247101068496704</v>
+        <v>1.79852831363678</v>
       </c>
       <c r="GG2">
-        <v>-7.487395286560059</v>
+        <v>-7.439918041229248</v>
       </c>
       <c r="GH2">
-        <v>-0.5604641437530518</v>
+        <v>-0.6560508012771606</v>
       </c>
       <c r="GI2">
-        <v>-1.725483179092407</v>
+        <v>-2.951990127563477</v>
       </c>
       <c r="GJ2">
-        <v>-2.145499229431152</v>
+        <v>-1.805020928382874</v>
       </c>
       <c r="GK2">
-        <v>-1.513749718666077</v>
+        <v>-1.125823616981506</v>
       </c>
       <c r="GL2">
-        <v>-15.27933406829834</v>
+        <v>-14.55362796783447</v>
       </c>
       <c r="GM2">
-        <v>-6.268487930297852</v>
+        <v>-5.786415576934814</v>
       </c>
       <c r="GN2">
-        <v>0.550481379032135</v>
+        <v>0.6909278035163879</v>
       </c>
       <c r="GO2">
-        <v>4.935410022735596</v>
+        <v>4.691457271575928</v>
       </c>
       <c r="GP2">
-        <v>1.652674674987793</v>
+        <v>1.429608345031738</v>
       </c>
       <c r="GQ2">
-        <v>-0.4155730307102203</v>
+        <v>-0.08483689278364182</v>
       </c>
       <c r="GR2">
-        <v>1.390295386314392</v>
+        <v>0.8547552824020386</v>
       </c>
       <c r="GS2">
-        <v>-5.782496929168701</v>
+        <v>-5.805069446563721</v>
       </c>
       <c r="GT2">
-        <v>-0.05310675874352455</v>
+        <v>-1.038673162460327</v>
       </c>
       <c r="GU2">
-        <v>-1.149330854415894</v>
+        <v>-2.013360977172852</v>
       </c>
       <c r="GV2">
-        <v>3.169251441955566</v>
+        <v>3.447769641876221</v>
       </c>
       <c r="GW2">
-        <v>-4.827131748199463</v>
+        <v>-5.792951107025146</v>
       </c>
       <c r="GX2">
-        <v>-0.1269488036632538</v>
+        <v>0.3530333340167999</v>
       </c>
       <c r="GY2">
-        <v>-4.315028667449951</v>
+        <v>-4.77000904083252</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Automobiles.xlsx
+++ b/static/Models/Classification/Equation/Automobiles.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.3603734970092773</v>
+        <v>-0.7094377279281616</v>
       </c>
       <c r="C2">
-        <v>2.867900848388672</v>
+        <v>3.065074443817139</v>
       </c>
       <c r="D2">
-        <v>-0.1229947954416275</v>
+        <v>-0.3775421977043152</v>
       </c>
       <c r="E2">
-        <v>-3.913290500640869</v>
+        <v>-3.087254762649536</v>
       </c>
       <c r="F2">
-        <v>1.307534456253052</v>
+        <v>1.342803597450256</v>
       </c>
       <c r="G2">
-        <v>-1.589880347251892</v>
+        <v>-2.142024278640747</v>
       </c>
       <c r="H2">
-        <v>1.199564576148987</v>
+        <v>0.6505005359649658</v>
       </c>
       <c r="I2">
-        <v>3.745785474777222</v>
+        <v>3.733344316482544</v>
       </c>
       <c r="J2">
-        <v>-4.726731300354004</v>
+        <v>-5.065829277038574</v>
       </c>
       <c r="K2">
-        <v>-2.198377132415771</v>
+        <v>-2.717218637466431</v>
       </c>
       <c r="L2">
-        <v>-0.01108859665691853</v>
+        <v>-0.4497500061988831</v>
       </c>
       <c r="M2">
-        <v>0.1376042068004608</v>
+        <v>0.276338517665863</v>
       </c>
       <c r="N2">
-        <v>-0.02321015484631062</v>
+        <v>0.1616058349609375</v>
       </c>
       <c r="O2">
-        <v>-9.656956672668457</v>
+        <v>-9.410592079162598</v>
       </c>
       <c r="P2">
-        <v>3.778326988220215</v>
+        <v>3.914893627166748</v>
       </c>
       <c r="Q2">
-        <v>-9.005030632019043</v>
+        <v>-9.086087226867676</v>
       </c>
       <c r="R2">
-        <v>-1.241986989974976</v>
+        <v>-1.121642351150513</v>
       </c>
       <c r="S2">
-        <v>-2.575711965560913</v>
+        <v>-2.434008359909058</v>
       </c>
       <c r="T2">
-        <v>-0.4694993793964386</v>
+        <v>-0.44932621717453</v>
       </c>
       <c r="U2">
-        <v>0.9263400435447693</v>
+        <v>1.069679141044617</v>
       </c>
       <c r="V2">
-        <v>-1.533625364303589</v>
+        <v>-1.900129318237305</v>
       </c>
       <c r="W2">
-        <v>-5.049221515655518</v>
+        <v>-4.955775737762451</v>
       </c>
       <c r="X2">
-        <v>-1.237542510032654</v>
+        <v>-1.352119207382202</v>
       </c>
       <c r="Y2">
-        <v>-7.568424224853516</v>
+        <v>-7.285312175750732</v>
       </c>
       <c r="Z2">
-        <v>-5.930093288421631</v>
+        <v>-5.308677673339844</v>
       </c>
       <c r="AA2">
-        <v>0.7571920156478882</v>
+        <v>0.6219634413719177</v>
       </c>
       <c r="AB2">
-        <v>-0.2805504202842712</v>
+        <v>0.2260768562555313</v>
       </c>
       <c r="AC2">
-        <v>4.61163330078125</v>
+        <v>4.162063121795654</v>
       </c>
       <c r="AD2">
-        <v>-2.447268962860107</v>
+        <v>-2.52595067024231</v>
       </c>
       <c r="AE2">
-        <v>-9.800738334655762</v>
+        <v>-9.667950630187988</v>
       </c>
       <c r="AF2">
-        <v>0.4068824350833893</v>
+        <v>0.812568187713623</v>
       </c>
       <c r="AG2">
-        <v>6.176837921142578</v>
+        <v>5.81483268737793</v>
       </c>
       <c r="AH2">
-        <v>-5.840840816497803</v>
+        <v>-5.884297370910645</v>
       </c>
       <c r="AI2">
-        <v>-10.4019603729248</v>
+        <v>-10.67578029632568</v>
       </c>
       <c r="AJ2">
-        <v>-1.055734395980835</v>
+        <v>-0.5489426255226135</v>
       </c>
       <c r="AK2">
-        <v>-0.2526895105838776</v>
+        <v>0.1081314757466316</v>
       </c>
       <c r="AL2">
-        <v>0.5412458181381226</v>
+        <v>0.4620560705661774</v>
       </c>
       <c r="AM2">
-        <v>5.638941764831543</v>
+        <v>6.282356739044189</v>
       </c>
       <c r="AN2">
-        <v>9.062606811523438</v>
+        <v>8.904446601867676</v>
       </c>
       <c r="AO2">
-        <v>-4.578675270080566</v>
+        <v>-4.666075229644775</v>
       </c>
       <c r="AP2">
-        <v>3.173331260681152</v>
+        <v>2.882613182067871</v>
       </c>
       <c r="AQ2">
-        <v>0.1017193347215652</v>
+        <v>0.3041545152664185</v>
       </c>
       <c r="AR2">
-        <v>11.45941734313965</v>
+        <v>11.37624645233154</v>
       </c>
       <c r="AS2">
-        <v>10.47805881500244</v>
+        <v>10.27061557769775</v>
       </c>
       <c r="AT2">
-        <v>-4.640103816986084</v>
+        <v>-4.228150367736816</v>
       </c>
       <c r="AU2">
-        <v>-18.86269378662109</v>
+        <v>-18.71726036071777</v>
       </c>
       <c r="AV2">
-        <v>10.75696754455566</v>
+        <v>10.63918209075928</v>
       </c>
       <c r="AW2">
-        <v>0.5541061758995056</v>
+        <v>0.877200722694397</v>
       </c>
       <c r="AX2">
-        <v>0.8814199566841125</v>
+        <v>0.806928813457489</v>
       </c>
       <c r="AY2">
-        <v>-4.230568885803223</v>
+        <v>-4.5047287940979</v>
       </c>
       <c r="AZ2">
-        <v>-1.507353186607361</v>
+        <v>-2.161087512969971</v>
       </c>
       <c r="BA2">
-        <v>0.5679081082344055</v>
+        <v>0.8270404934883118</v>
       </c>
       <c r="BB2">
-        <v>0.1165708750486374</v>
+        <v>0.3568875193595886</v>
       </c>
       <c r="BC2">
-        <v>-2.748818159103394</v>
+        <v>-2.907749891281128</v>
       </c>
       <c r="BD2">
-        <v>-1.893467783927917</v>
+        <v>-1.983591318130493</v>
       </c>
       <c r="BE2">
-        <v>-1.467773199081421</v>
+        <v>-1.462689757347107</v>
       </c>
       <c r="BF2">
-        <v>-2.273820161819458</v>
+        <v>-1.973227739334106</v>
       </c>
       <c r="BG2">
-        <v>1.656554698944092</v>
+        <v>1.556500315666199</v>
       </c>
       <c r="BH2">
-        <v>2.094259262084961</v>
+        <v>2.664560556411743</v>
       </c>
       <c r="BI2">
-        <v>-2.493655920028687</v>
+        <v>-2.715412616729736</v>
       </c>
       <c r="BJ2">
-        <v>3.575813293457031</v>
+        <v>3.420723438262939</v>
       </c>
       <c r="BK2">
-        <v>-0.634375274181366</v>
+        <v>-0.9199046492576599</v>
       </c>
       <c r="BL2">
-        <v>1.795727849006653</v>
+        <v>1.328922748565674</v>
       </c>
       <c r="BM2">
-        <v>10.21340370178223</v>
+        <v>9.789610862731934</v>
       </c>
       <c r="BN2">
-        <v>8.964587211608887</v>
+        <v>9.205356597900391</v>
       </c>
       <c r="BO2">
-        <v>2.539172410964966</v>
+        <v>2.88205361366272</v>
       </c>
       <c r="BP2">
-        <v>3.848734617233276</v>
+        <v>3.742222309112549</v>
       </c>
       <c r="BQ2">
-        <v>-1.600786447525024</v>
+        <v>-1.155805706977844</v>
       </c>
       <c r="BR2">
-        <v>0.0979238748550415</v>
+        <v>0.1830009818077087</v>
       </c>
       <c r="BS2">
-        <v>0.03547168523073196</v>
+        <v>0.3195313513278961</v>
       </c>
       <c r="BT2">
-        <v>0.7463854551315308</v>
+        <v>0.982490062713623</v>
       </c>
       <c r="BU2">
-        <v>0.8397675156593323</v>
+        <v>0.4031931757926941</v>
       </c>
       <c r="BV2">
-        <v>-7.913863658905029</v>
+        <v>-8.659786224365234</v>
       </c>
       <c r="BW2">
-        <v>0.977795422077179</v>
+        <v>1.581311583518982</v>
       </c>
       <c r="BX2">
-        <v>-9.910426139831543</v>
+        <v>-9.961623191833496</v>
       </c>
       <c r="BY2">
-        <v>-1.587555527687073</v>
+        <v>-1.569441080093384</v>
       </c>
       <c r="BZ2">
-        <v>-2.659159183502197</v>
+        <v>-3.104633092880249</v>
       </c>
       <c r="CA2">
-        <v>1.77823793888092</v>
+        <v>1.925733327865601</v>
       </c>
       <c r="CB2">
-        <v>4.81145715713501</v>
+        <v>4.964920043945312</v>
       </c>
       <c r="CC2">
-        <v>-0.8683781027793884</v>
+        <v>-1.117930173873901</v>
       </c>
       <c r="CD2">
-        <v>0.772010862827301</v>
+        <v>1.226703286170959</v>
       </c>
       <c r="CE2">
-        <v>0.3568222522735596</v>
+        <v>0.2149242609739304</v>
       </c>
       <c r="CF2">
-        <v>8.608710289001465</v>
+        <v>8.531431198120117</v>
       </c>
       <c r="CG2">
-        <v>-0.9445917010307312</v>
+        <v>-0.6006272435188293</v>
       </c>
       <c r="CH2">
-        <v>-14.28843307495117</v>
+        <v>-14.2540864944458</v>
       </c>
       <c r="CI2">
-        <v>-2.03703236579895</v>
+        <v>-2.366289377212524</v>
       </c>
       <c r="CJ2">
-        <v>10.45915031433105</v>
+        <v>10.51565933227539</v>
       </c>
       <c r="CK2">
-        <v>-1.367590308189392</v>
+        <v>-1.472480535507202</v>
       </c>
       <c r="CL2">
-        <v>-0.874650239944458</v>
+        <v>-0.8321672081947327</v>
       </c>
       <c r="CM2">
-        <v>-0.9978404641151428</v>
+        <v>-1.183655858039856</v>
       </c>
       <c r="CN2">
-        <v>-0.06460998207330704</v>
+        <v>0.1138093546032906</v>
       </c>
       <c r="CO2">
-        <v>0.76679527759552</v>
+        <v>0.5200594663619995</v>
       </c>
       <c r="CP2">
-        <v>-4.098361492156982</v>
+        <v>-4.360243320465088</v>
       </c>
       <c r="CQ2">
-        <v>13.14862251281738</v>
+        <v>13.23963928222656</v>
       </c>
       <c r="CR2">
-        <v>-0.4182551205158234</v>
+        <v>-0.5858636498451233</v>
       </c>
       <c r="CS2">
-        <v>-0.8532993197441101</v>
+        <v>-0.8824443221092224</v>
       </c>
       <c r="CT2">
-        <v>0.8411890864372253</v>
+        <v>0.5333487987518311</v>
       </c>
       <c r="CU2">
-        <v>-1.775404930114746</v>
+        <v>-1.792347192764282</v>
       </c>
       <c r="CV2">
-        <v>0.1676610261201859</v>
+        <v>0.4964152574539185</v>
       </c>
       <c r="CW2">
-        <v>-11.98884868621826</v>
+        <v>-12.09413623809814</v>
       </c>
       <c r="CX2">
-        <v>-0.3756748735904694</v>
+        <v>-0.05405845120549202</v>
       </c>
       <c r="CY2">
-        <v>0.4512828290462494</v>
+        <v>0.713513195514679</v>
       </c>
       <c r="CZ2">
-        <v>1.402673959732056</v>
+        <v>1.289702296257019</v>
       </c>
       <c r="DA2">
-        <v>3.83630633354187</v>
+        <v>3.997099876403809</v>
       </c>
       <c r="DB2">
-        <v>-1.635166168212891</v>
+        <v>-1.610885381698608</v>
       </c>
       <c r="DC2">
-        <v>-0.8686254620552063</v>
+        <v>-0.5492485761642456</v>
       </c>
       <c r="DD2">
-        <v>-7.987994194030762</v>
+        <v>-8.04955005645752</v>
       </c>
       <c r="DE2">
-        <v>3.126923561096191</v>
+        <v>3.093646049499512</v>
       </c>
       <c r="DF2">
-        <v>6.188069820404053</v>
+        <v>6.280156135559082</v>
       </c>
       <c r="DG2">
-        <v>-1.12906277179718</v>
+        <v>-1.176334381103516</v>
       </c>
       <c r="DH2">
-        <v>-1.895683288574219</v>
+        <v>-1.842669606208801</v>
       </c>
       <c r="DI2">
-        <v>-4.126290798187256</v>
+        <v>-4.432974815368652</v>
       </c>
       <c r="DJ2">
-        <v>4.781715869903564</v>
+        <v>4.581224918365479</v>
       </c>
       <c r="DK2">
-        <v>-12.2057523727417</v>
+        <v>-12.79082870483398</v>
       </c>
       <c r="DL2">
-        <v>-16.99975967407227</v>
+        <v>-17.21857643127441</v>
       </c>
       <c r="DM2">
-        <v>-1.517827153205872</v>
+        <v>-1.619431138038635</v>
       </c>
       <c r="DN2">
-        <v>1.269187569618225</v>
+        <v>1.076017618179321</v>
       </c>
       <c r="DO2">
-        <v>0.05685804039239883</v>
+        <v>0.1501095443964005</v>
       </c>
       <c r="DP2">
-        <v>2.230284452438354</v>
+        <v>2.173372745513916</v>
       </c>
       <c r="DQ2">
-        <v>2.230152368545532</v>
+        <v>2.088836193084717</v>
       </c>
       <c r="DR2">
-        <v>-0.03379999473690987</v>
+        <v>-0.02443385496735573</v>
       </c>
       <c r="DS2">
-        <v>-0.6838736534118652</v>
+        <v>-0.6512305736541748</v>
       </c>
       <c r="DT2">
-        <v>-2.747366189956665</v>
+        <v>-2.539443969726562</v>
       </c>
       <c r="DU2">
-        <v>5.642271041870117</v>
+        <v>5.631172180175781</v>
       </c>
       <c r="DV2">
-        <v>0.2669329047203064</v>
+        <v>0.5454612970352173</v>
       </c>
       <c r="DW2">
-        <v>-0.1329121738672256</v>
+        <v>-0.4819841682910919</v>
       </c>
       <c r="DX2">
-        <v>2.198348999023438</v>
+        <v>1.968619823455811</v>
       </c>
       <c r="DY2">
-        <v>8.394211769104004</v>
+        <v>8.274981498718262</v>
       </c>
       <c r="DZ2">
-        <v>0.5151525139808655</v>
+        <v>0.7455015182495117</v>
       </c>
       <c r="EA2">
-        <v>-1.938493967056274</v>
+        <v>-1.871257305145264</v>
       </c>
       <c r="EB2">
-        <v>-1.424931526184082</v>
+        <v>-1.519226312637329</v>
       </c>
       <c r="EC2">
-        <v>-3.422922134399414</v>
+        <v>-2.859151840209961</v>
       </c>
       <c r="ED2">
-        <v>3.302619934082031</v>
+        <v>3.308677911758423</v>
       </c>
       <c r="EE2">
-        <v>-2.20672607421875</v>
+        <v>-2.169330596923828</v>
       </c>
       <c r="EF2">
-        <v>-3.249610185623169</v>
+        <v>-3.3822340965271</v>
       </c>
       <c r="EG2">
-        <v>-2.877141237258911</v>
+        <v>-2.352323293685913</v>
       </c>
       <c r="EH2">
-        <v>-11.53661918640137</v>
+        <v>-11.59862613677979</v>
       </c>
       <c r="EI2">
-        <v>0.8674461841583252</v>
+        <v>0.4958533346652985</v>
       </c>
       <c r="EJ2">
-        <v>8.519586563110352</v>
+        <v>8.081159591674805</v>
       </c>
       <c r="EK2">
-        <v>-0.2343392968177795</v>
+        <v>-0.3177286684513092</v>
       </c>
       <c r="EL2">
-        <v>-0.03385834768414497</v>
+        <v>-0.2669844627380371</v>
       </c>
       <c r="EM2">
-        <v>-4.568553924560547</v>
+        <v>-4.182085514068604</v>
       </c>
       <c r="EN2">
-        <v>1.626763939857483</v>
+        <v>1.295318007469177</v>
       </c>
       <c r="EO2">
-        <v>1.8963942527771</v>
+        <v>2.105430603027344</v>
       </c>
       <c r="EP2">
-        <v>-7.798670291900635</v>
+        <v>-7.899677276611328</v>
       </c>
       <c r="EQ2">
-        <v>-3.398887634277344</v>
+        <v>-2.900086879730225</v>
       </c>
       <c r="ER2">
-        <v>1.9862459897995</v>
+        <v>1.603790521621704</v>
       </c>
       <c r="ES2">
-        <v>-15.31695365905762</v>
+        <v>-15.47307682037354</v>
       </c>
       <c r="ET2">
-        <v>4.071245193481445</v>
+        <v>4.155070304870605</v>
       </c>
       <c r="EU2">
-        <v>10.08951950073242</v>
+        <v>10.28766822814941</v>
       </c>
       <c r="EV2">
-        <v>3.090051651000977</v>
+        <v>3.231993913650513</v>
       </c>
       <c r="EW2">
-        <v>-0.2333673238754272</v>
+        <v>-0.1323492228984833</v>
       </c>
       <c r="EX2">
-        <v>-7.505086421966553</v>
+        <v>-7.360794067382812</v>
       </c>
       <c r="EY2">
-        <v>0.8600922822952271</v>
+        <v>0.5189939737319946</v>
       </c>
       <c r="EZ2">
-        <v>-2.985535860061646</v>
+        <v>-3.233799457550049</v>
       </c>
       <c r="FA2">
-        <v>0.1199057921767235</v>
+        <v>0.1845934242010117</v>
       </c>
       <c r="FB2">
-        <v>-0.08200994879007339</v>
+        <v>-0.2497773915529251</v>
       </c>
       <c r="FC2">
-        <v>-2.75937294960022</v>
+        <v>-2.748076438903809</v>
       </c>
       <c r="FD2">
-        <v>-0.5424256920814514</v>
+        <v>-0.5959091782569885</v>
       </c>
       <c r="FE2">
-        <v>-2.93103814125061</v>
+        <v>-2.955532312393188</v>
       </c>
       <c r="FF2">
-        <v>3.760694980621338</v>
+        <v>3.539399385452271</v>
       </c>
       <c r="FG2">
-        <v>-5.122900009155273</v>
+        <v>-4.899699211120605</v>
       </c>
       <c r="FH2">
-        <v>1.525086879730225</v>
+        <v>1.16277277469635</v>
       </c>
       <c r="FI2">
-        <v>0.7095882296562195</v>
+        <v>0.8109514713287354</v>
       </c>
       <c r="FJ2">
-        <v>3.630944967269897</v>
+        <v>4.10344934463501</v>
       </c>
       <c r="FK2">
-        <v>9.312798500061035</v>
+        <v>9.145922660827637</v>
       </c>
       <c r="FL2">
-        <v>3.86444091796875</v>
+        <v>4.198053359985352</v>
       </c>
       <c r="FM2">
-        <v>2.905949354171753</v>
+        <v>2.189987659454346</v>
       </c>
       <c r="FN2">
-        <v>1.449627161026001</v>
+        <v>1.556197047233582</v>
       </c>
       <c r="FO2">
-        <v>1.387603640556335</v>
+        <v>1.001223921775818</v>
       </c>
       <c r="FP2">
-        <v>-0.9994050264358521</v>
+        <v>-1.176352500915527</v>
       </c>
       <c r="FQ2">
-        <v>0.8260887861251831</v>
+        <v>0.5842700004577637</v>
       </c>
       <c r="FR2">
-        <v>1.875454425811768</v>
+        <v>1.712041020393372</v>
       </c>
       <c r="FS2">
-        <v>-1.092400670051575</v>
+        <v>-1.359936356544495</v>
       </c>
       <c r="FT2">
-        <v>-1.550707101821899</v>
+        <v>-1.696452975273132</v>
       </c>
       <c r="FU2">
-        <v>3.427443981170654</v>
+        <v>3.464248418807983</v>
       </c>
       <c r="FV2">
-        <v>-0.9772697687149048</v>
+        <v>-1.218202114105225</v>
       </c>
       <c r="FW2">
-        <v>-3.397078037261963</v>
+        <v>-3.713212966918945</v>
       </c>
       <c r="FX2">
-        <v>-0.2184803187847137</v>
+        <v>0.01402908749878407</v>
       </c>
       <c r="FY2">
-        <v>-0.2764907777309418</v>
+        <v>-0.1198751851916313</v>
       </c>
       <c r="FZ2">
-        <v>0.09995827823877335</v>
+        <v>-0.1210093274712563</v>
       </c>
       <c r="GA2">
-        <v>-0.7372719049453735</v>
+        <v>-0.8373785614967346</v>
       </c>
       <c r="GB2">
-        <v>-0.9566182494163513</v>
+        <v>-0.8768236041069031</v>
       </c>
       <c r="GC2">
-        <v>0.4493282437324524</v>
+        <v>1.118839859962463</v>
       </c>
       <c r="GD2">
-        <v>-0.7341927289962769</v>
+        <v>-0.2867044508457184</v>
       </c>
       <c r="GE2">
-        <v>1.682463049888611</v>
+        <v>1.487924575805664</v>
       </c>
       <c r="GF2">
-        <v>1.79852831363678</v>
+        <v>1.775168538093567</v>
       </c>
       <c r="GG2">
-        <v>-7.439918041229248</v>
+        <v>-7.510006904602051</v>
       </c>
       <c r="GH2">
-        <v>-0.6560508012771606</v>
+        <v>-0.8269455432891846</v>
       </c>
       <c r="GI2">
-        <v>-2.951990127563477</v>
+        <v>-2.992005825042725</v>
       </c>
       <c r="GJ2">
-        <v>-1.805020928382874</v>
+        <v>-1.914852023124695</v>
       </c>
       <c r="GK2">
-        <v>-1.125823616981506</v>
+        <v>-0.998253345489502</v>
       </c>
       <c r="GL2">
-        <v>-14.55362796783447</v>
+        <v>-14.54273509979248</v>
       </c>
       <c r="GM2">
-        <v>-5.786415576934814</v>
+        <v>-6.109345436096191</v>
       </c>
       <c r="GN2">
-        <v>0.6909278035163879</v>
+        <v>0.3579184114933014</v>
       </c>
       <c r="GO2">
-        <v>4.691457271575928</v>
+        <v>4.594760894775391</v>
       </c>
       <c r="GP2">
-        <v>1.429608345031738</v>
+        <v>1.170993208885193</v>
       </c>
       <c r="GQ2">
-        <v>-0.08483689278364182</v>
+        <v>0.5334835648536682</v>
       </c>
       <c r="GR2">
-        <v>0.8547552824020386</v>
+        <v>0.4691158831119537</v>
       </c>
       <c r="GS2">
-        <v>-5.805069446563721</v>
+        <v>-5.87778377532959</v>
       </c>
       <c r="GT2">
-        <v>-1.038673162460327</v>
+        <v>-1.132870674133301</v>
       </c>
       <c r="GU2">
-        <v>-2.013360977172852</v>
+        <v>-1.835461616516113</v>
       </c>
       <c r="GV2">
-        <v>3.447769641876221</v>
+        <v>2.943144798278809</v>
       </c>
       <c r="GW2">
-        <v>-5.792951107025146</v>
+        <v>-5.847045421600342</v>
       </c>
       <c r="GX2">
-        <v>0.3530333340167999</v>
+        <v>-0.02945659682154655</v>
       </c>
       <c r="GY2">
-        <v>-4.77000904083252</v>
+        <v>-4.850480556488037</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Automobiles.xlsx
+++ b/static/Models/Classification/Equation/Automobiles.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.7094377279281616</v>
+        <v>-1.996034383773804</v>
       </c>
       <c r="C2">
-        <v>3.065074443817139</v>
+        <v>4.37043571472168</v>
       </c>
       <c r="D2">
-        <v>-0.3775421977043152</v>
+        <v>-0.3474075496196747</v>
       </c>
       <c r="E2">
-        <v>-3.087254762649536</v>
+        <v>-3.411669969558716</v>
       </c>
       <c r="F2">
-        <v>1.342803597450256</v>
+        <v>-0.2688504159450531</v>
       </c>
       <c r="G2">
-        <v>-2.142024278640747</v>
+        <v>-2.826172590255737</v>
       </c>
       <c r="H2">
-        <v>0.6505005359649658</v>
+        <v>1.176374912261963</v>
       </c>
       <c r="I2">
-        <v>3.733344316482544</v>
+        <v>3.794006824493408</v>
       </c>
       <c r="J2">
-        <v>-5.065829277038574</v>
+        <v>-6.613533020019531</v>
       </c>
       <c r="K2">
-        <v>-2.717218637466431</v>
+        <v>-2.646709203720093</v>
       </c>
       <c r="L2">
-        <v>-0.4497500061988831</v>
+        <v>-1.305450201034546</v>
       </c>
       <c r="M2">
-        <v>0.276338517665863</v>
+        <v>0.1410849094390869</v>
       </c>
       <c r="N2">
-        <v>0.1616058349609375</v>
+        <v>-1.373013138771057</v>
       </c>
       <c r="O2">
-        <v>-9.410592079162598</v>
+        <v>-10.11507320404053</v>
       </c>
       <c r="P2">
-        <v>3.914893627166748</v>
+        <v>4.503109931945801</v>
       </c>
       <c r="Q2">
-        <v>-9.086087226867676</v>
+        <v>-8.405567169189453</v>
       </c>
       <c r="R2">
-        <v>-1.121642351150513</v>
+        <v>0.0531805008649826</v>
       </c>
       <c r="S2">
-        <v>-2.434008359909058</v>
+        <v>-1.049840807914734</v>
       </c>
       <c r="T2">
-        <v>-0.44932621717453</v>
+        <v>-0.549421489238739</v>
       </c>
       <c r="U2">
-        <v>1.069679141044617</v>
+        <v>-0.7406832575798035</v>
       </c>
       <c r="V2">
-        <v>-1.900129318237305</v>
+        <v>-1.416967034339905</v>
       </c>
       <c r="W2">
-        <v>-4.955775737762451</v>
+        <v>-5.782247066497803</v>
       </c>
       <c r="X2">
-        <v>-1.352119207382202</v>
+        <v>-0.3493456840515137</v>
       </c>
       <c r="Y2">
-        <v>-7.285312175750732</v>
+        <v>-7.869458198547363</v>
       </c>
       <c r="Z2">
-        <v>-5.308677673339844</v>
+        <v>-6.596701622009277</v>
       </c>
       <c r="AA2">
-        <v>0.6219634413719177</v>
+        <v>1.392350316047668</v>
       </c>
       <c r="AB2">
-        <v>0.2260768562555313</v>
+        <v>0.3953926861286163</v>
       </c>
       <c r="AC2">
-        <v>4.162063121795654</v>
+        <v>3.071003675460815</v>
       </c>
       <c r="AD2">
-        <v>-2.52595067024231</v>
+        <v>-1.428521275520325</v>
       </c>
       <c r="AE2">
-        <v>-9.667950630187988</v>
+        <v>-9.381851196289062</v>
       </c>
       <c r="AF2">
-        <v>0.812568187713623</v>
+        <v>1.735936760902405</v>
       </c>
       <c r="AG2">
-        <v>5.81483268737793</v>
+        <v>6.129215717315674</v>
       </c>
       <c r="AH2">
-        <v>-5.884297370910645</v>
+        <v>-6.105837345123291</v>
       </c>
       <c r="AI2">
-        <v>-10.67578029632568</v>
+        <v>-9.622125625610352</v>
       </c>
       <c r="AJ2">
-        <v>-0.5489426255226135</v>
+        <v>-0.2657404839992523</v>
       </c>
       <c r="AK2">
-        <v>0.1081314757466316</v>
+        <v>0.1506771892309189</v>
       </c>
       <c r="AL2">
-        <v>0.4620560705661774</v>
+        <v>0.6666644215583801</v>
       </c>
       <c r="AM2">
-        <v>6.282356739044189</v>
+        <v>7.204802989959717</v>
       </c>
       <c r="AN2">
-        <v>8.904446601867676</v>
+        <v>10.00010585784912</v>
       </c>
       <c r="AO2">
-        <v>-4.666075229644775</v>
+        <v>-5.683907508850098</v>
       </c>
       <c r="AP2">
-        <v>2.882613182067871</v>
+        <v>1.421569347381592</v>
       </c>
       <c r="AQ2">
-        <v>0.3041545152664185</v>
+        <v>0.254056304693222</v>
       </c>
       <c r="AR2">
-        <v>11.37624645233154</v>
+        <v>13.11563205718994</v>
       </c>
       <c r="AS2">
-        <v>10.27061557769775</v>
+        <v>11.74925708770752</v>
       </c>
       <c r="AT2">
-        <v>-4.228150367736816</v>
+        <v>-3.558867931365967</v>
       </c>
       <c r="AU2">
-        <v>-18.71726036071777</v>
+        <v>-18.11650085449219</v>
       </c>
       <c r="AV2">
-        <v>10.63918209075928</v>
+        <v>8.743730545043945</v>
       </c>
       <c r="AW2">
-        <v>0.877200722694397</v>
+        <v>1.836630702018738</v>
       </c>
       <c r="AX2">
-        <v>0.806928813457489</v>
+        <v>-0.1333018690347672</v>
       </c>
       <c r="AY2">
-        <v>-4.5047287940979</v>
+        <v>-5.170729160308838</v>
       </c>
       <c r="AZ2">
-        <v>-2.161087512969971</v>
+        <v>0.2809561789035797</v>
       </c>
       <c r="BA2">
-        <v>0.8270404934883118</v>
+        <v>1.181234836578369</v>
       </c>
       <c r="BB2">
-        <v>0.3568875193595886</v>
+        <v>0.7191537618637085</v>
       </c>
       <c r="BC2">
-        <v>-2.907749891281128</v>
+        <v>-0.5361297726631165</v>
       </c>
       <c r="BD2">
-        <v>-1.983591318130493</v>
+        <v>-0.9435833692550659</v>
       </c>
       <c r="BE2">
-        <v>-1.462689757347107</v>
+        <v>-0.4743638932704926</v>
       </c>
       <c r="BF2">
-        <v>-1.973227739334106</v>
+        <v>-1.403448700904846</v>
       </c>
       <c r="BG2">
-        <v>1.556500315666199</v>
+        <v>2.454346895217896</v>
       </c>
       <c r="BH2">
-        <v>2.664560556411743</v>
+        <v>1.335954308509827</v>
       </c>
       <c r="BI2">
-        <v>-2.715412616729736</v>
+        <v>-2.279156684875488</v>
       </c>
       <c r="BJ2">
-        <v>3.420723438262939</v>
+        <v>4.096036911010742</v>
       </c>
       <c r="BK2">
-        <v>-0.9199046492576599</v>
+        <v>-1.057538032531738</v>
       </c>
       <c r="BL2">
-        <v>1.328922748565674</v>
+        <v>-0.2080797106027603</v>
       </c>
       <c r="BM2">
-        <v>9.789610862731934</v>
+        <v>9.241938591003418</v>
       </c>
       <c r="BN2">
-        <v>9.205356597900391</v>
+        <v>9.412725448608398</v>
       </c>
       <c r="BO2">
-        <v>2.88205361366272</v>
+        <v>1.748999118804932</v>
       </c>
       <c r="BP2">
-        <v>3.742222309112549</v>
+        <v>2.770334720611572</v>
       </c>
       <c r="BQ2">
-        <v>-1.155805706977844</v>
+        <v>-1.208004117012024</v>
       </c>
       <c r="BR2">
-        <v>0.1830009818077087</v>
+        <v>0.3180657625198364</v>
       </c>
       <c r="BS2">
-        <v>0.3195313513278961</v>
+        <v>-0.06187567859888077</v>
       </c>
       <c r="BT2">
-        <v>0.982490062713623</v>
+        <v>0.4281748533248901</v>
       </c>
       <c r="BU2">
-        <v>0.4031931757926941</v>
+        <v>0.723577618598938</v>
       </c>
       <c r="BV2">
-        <v>-8.659786224365234</v>
+        <v>-9.041085243225098</v>
       </c>
       <c r="BW2">
-        <v>1.581311583518982</v>
+        <v>0.664078414440155</v>
       </c>
       <c r="BX2">
-        <v>-9.961623191833496</v>
+        <v>-11.76522064208984</v>
       </c>
       <c r="BY2">
-        <v>-1.569441080093384</v>
+        <v>-2.052186250686646</v>
       </c>
       <c r="BZ2">
-        <v>-3.104633092880249</v>
+        <v>-4.267774105072021</v>
       </c>
       <c r="CA2">
-        <v>1.925733327865601</v>
+        <v>2.969874620437622</v>
       </c>
       <c r="CB2">
-        <v>4.964920043945312</v>
+        <v>4.259855270385742</v>
       </c>
       <c r="CC2">
-        <v>-1.117930173873901</v>
+        <v>-1.175645112991333</v>
       </c>
       <c r="CD2">
-        <v>1.226703286170959</v>
+        <v>0.3240928947925568</v>
       </c>
       <c r="CE2">
-        <v>0.2149242609739304</v>
+        <v>-1.483014345169067</v>
       </c>
       <c r="CF2">
-        <v>8.531431198120117</v>
+        <v>7.259748458862305</v>
       </c>
       <c r="CG2">
-        <v>-0.6006272435188293</v>
+        <v>-1.000885963439941</v>
       </c>
       <c r="CH2">
-        <v>-14.2540864944458</v>
+        <v>-13.60527610778809</v>
       </c>
       <c r="CI2">
-        <v>-2.366289377212524</v>
+        <v>-1.204521656036377</v>
       </c>
       <c r="CJ2">
-        <v>10.51565933227539</v>
+        <v>9.805105209350586</v>
       </c>
       <c r="CK2">
-        <v>-1.472480535507202</v>
+        <v>-1.050895571708679</v>
       </c>
       <c r="CL2">
-        <v>-0.8321672081947327</v>
+        <v>-1.754417777061462</v>
       </c>
       <c r="CM2">
-        <v>-1.183655858039856</v>
+        <v>-0.8120327591896057</v>
       </c>
       <c r="CN2">
-        <v>0.1138093546032906</v>
+        <v>-0.3123364746570587</v>
       </c>
       <c r="CO2">
-        <v>0.5200594663619995</v>
+        <v>0.940970242023468</v>
       </c>
       <c r="CP2">
-        <v>-4.360243320465088</v>
+        <v>-3.045441627502441</v>
       </c>
       <c r="CQ2">
-        <v>13.23963928222656</v>
+        <v>13.93196868896484</v>
       </c>
       <c r="CR2">
-        <v>-0.5858636498451233</v>
+        <v>0.3143268227577209</v>
       </c>
       <c r="CS2">
-        <v>-0.8824443221092224</v>
+        <v>0.2178043723106384</v>
       </c>
       <c r="CT2">
-        <v>0.5333487987518311</v>
+        <v>0.3384327590465546</v>
       </c>
       <c r="CU2">
-        <v>-1.792347192764282</v>
+        <v>-0.1472294479608536</v>
       </c>
       <c r="CV2">
-        <v>0.4964152574539185</v>
+        <v>-0.1974036395549774</v>
       </c>
       <c r="CW2">
-        <v>-12.09413623809814</v>
+        <v>-12.77157974243164</v>
       </c>
       <c r="CX2">
-        <v>-0.05405845120549202</v>
+        <v>0.4317033886909485</v>
       </c>
       <c r="CY2">
-        <v>0.713513195514679</v>
+        <v>1.854591846466064</v>
       </c>
       <c r="CZ2">
-        <v>1.289702296257019</v>
+        <v>1.013297915458679</v>
       </c>
       <c r="DA2">
-        <v>3.997099876403809</v>
+        <v>2.036141395568848</v>
       </c>
       <c r="DB2">
-        <v>-1.610885381698608</v>
+        <v>-0.8133957386016846</v>
       </c>
       <c r="DC2">
-        <v>-0.5492485761642456</v>
+        <v>-1.571947455406189</v>
       </c>
       <c r="DD2">
-        <v>-8.04955005645752</v>
+        <v>-9.729179382324219</v>
       </c>
       <c r="DE2">
-        <v>3.093646049499512</v>
+        <v>3.945176362991333</v>
       </c>
       <c r="DF2">
-        <v>6.280156135559082</v>
+        <v>4.605986595153809</v>
       </c>
       <c r="DG2">
-        <v>-1.176334381103516</v>
+        <v>-0.8159400224685669</v>
       </c>
       <c r="DH2">
-        <v>-1.842669606208801</v>
+        <v>-3.522894620895386</v>
       </c>
       <c r="DI2">
-        <v>-4.432974815368652</v>
+        <v>-3.566258668899536</v>
       </c>
       <c r="DJ2">
-        <v>4.581224918365479</v>
+        <v>4.426330089569092</v>
       </c>
       <c r="DK2">
-        <v>-12.79082870483398</v>
+        <v>-12.68682765960693</v>
       </c>
       <c r="DL2">
-        <v>-17.21857643127441</v>
+        <v>-16.8891429901123</v>
       </c>
       <c r="DM2">
-        <v>-1.619431138038635</v>
+        <v>-0.2543045282363892</v>
       </c>
       <c r="DN2">
-        <v>1.076017618179321</v>
+        <v>2.004184484481812</v>
       </c>
       <c r="DO2">
-        <v>0.1501095443964005</v>
+        <v>2.667973279953003</v>
       </c>
       <c r="DP2">
-        <v>2.173372745513916</v>
+        <v>1.366407632827759</v>
       </c>
       <c r="DQ2">
-        <v>2.088836193084717</v>
+        <v>3.032570362091064</v>
       </c>
       <c r="DR2">
-        <v>-0.02443385496735573</v>
+        <v>2.487515926361084</v>
       </c>
       <c r="DS2">
-        <v>-0.6512305736541748</v>
+        <v>-0.6499245762825012</v>
       </c>
       <c r="DT2">
-        <v>-2.539443969726562</v>
+        <v>-1.9079829454422</v>
       </c>
       <c r="DU2">
-        <v>5.631172180175781</v>
+        <v>4.895950317382812</v>
       </c>
       <c r="DV2">
-        <v>0.5454612970352173</v>
+        <v>-0.2321718782186508</v>
       </c>
       <c r="DW2">
-        <v>-0.4819841682910919</v>
+        <v>-1.476611852645874</v>
       </c>
       <c r="DX2">
-        <v>1.968619823455811</v>
+        <v>2.593085765838623</v>
       </c>
       <c r="DY2">
-        <v>8.274981498718262</v>
+        <v>8.445488929748535</v>
       </c>
       <c r="DZ2">
-        <v>0.7455015182495117</v>
+        <v>-0.001061988878063858</v>
       </c>
       <c r="EA2">
-        <v>-1.871257305145264</v>
+        <v>-2.357975959777832</v>
       </c>
       <c r="EB2">
-        <v>-1.519226312637329</v>
+        <v>-0.4902477860450745</v>
       </c>
       <c r="EC2">
-        <v>-2.859151840209961</v>
+        <v>-1.804296731948853</v>
       </c>
       <c r="ED2">
-        <v>3.308677911758423</v>
+        <v>2.95290470123291</v>
       </c>
       <c r="EE2">
-        <v>-2.169330596923828</v>
+        <v>-1.322013378143311</v>
       </c>
       <c r="EF2">
-        <v>-3.3822340965271</v>
+        <v>-3.791478395462036</v>
       </c>
       <c r="EG2">
-        <v>-2.352323293685913</v>
+        <v>-1.604390859603882</v>
       </c>
       <c r="EH2">
-        <v>-11.59862613677979</v>
+        <v>-13.83955764770508</v>
       </c>
       <c r="EI2">
-        <v>0.4958533346652985</v>
+        <v>-0.3935069441795349</v>
       </c>
       <c r="EJ2">
-        <v>8.081159591674805</v>
+        <v>10.23207378387451</v>
       </c>
       <c r="EK2">
-        <v>-0.3177286684513092</v>
+        <v>-0.2748955190181732</v>
       </c>
       <c r="EL2">
-        <v>-0.2669844627380371</v>
+        <v>0.389585018157959</v>
       </c>
       <c r="EM2">
-        <v>-4.182085514068604</v>
+        <v>-4.469002723693848</v>
       </c>
       <c r="EN2">
-        <v>1.295318007469177</v>
+        <v>-0.4726577699184418</v>
       </c>
       <c r="EO2">
-        <v>2.105430603027344</v>
+        <v>0.7670754194259644</v>
       </c>
       <c r="EP2">
-        <v>-7.899677276611328</v>
+        <v>-9.564093589782715</v>
       </c>
       <c r="EQ2">
-        <v>-2.900086879730225</v>
+        <v>-4.08710241317749</v>
       </c>
       <c r="ER2">
-        <v>1.603790521621704</v>
+        <v>-0.2182656824588776</v>
       </c>
       <c r="ES2">
-        <v>-15.47307682037354</v>
+        <v>-16.7833251953125</v>
       </c>
       <c r="ET2">
-        <v>4.155070304870605</v>
+        <v>5.055525302886963</v>
       </c>
       <c r="EU2">
-        <v>10.28766822814941</v>
+        <v>11.50348949432373</v>
       </c>
       <c r="EV2">
-        <v>3.231993913650513</v>
+        <v>3.450316905975342</v>
       </c>
       <c r="EW2">
-        <v>-0.1323492228984833</v>
+        <v>-0.3852300643920898</v>
       </c>
       <c r="EX2">
-        <v>-7.360794067382812</v>
+        <v>-9.339494705200195</v>
       </c>
       <c r="EY2">
-        <v>0.5189939737319946</v>
+        <v>0.7666741013526917</v>
       </c>
       <c r="EZ2">
-        <v>-3.233799457550049</v>
+        <v>-3.22594165802002</v>
       </c>
       <c r="FA2">
-        <v>0.1845934242010117</v>
+        <v>1.2620609998703</v>
       </c>
       <c r="FB2">
-        <v>-0.2497773915529251</v>
+        <v>0.7382526993751526</v>
       </c>
       <c r="FC2">
-        <v>-2.748076438903809</v>
+        <v>-4.467023372650146</v>
       </c>
       <c r="FD2">
-        <v>-0.5959091782569885</v>
+        <v>-0.5700848698616028</v>
       </c>
       <c r="FE2">
-        <v>-2.955532312393188</v>
+        <v>-2.649406671524048</v>
       </c>
       <c r="FF2">
-        <v>3.539399385452271</v>
+        <v>2.50359034538269</v>
       </c>
       <c r="FG2">
-        <v>-4.899699211120605</v>
+        <v>-4.454459667205811</v>
       </c>
       <c r="FH2">
-        <v>1.16277277469635</v>
+        <v>1.86353874206543</v>
       </c>
       <c r="FI2">
-        <v>0.8109514713287354</v>
+        <v>0.1808459758758545</v>
       </c>
       <c r="FJ2">
-        <v>4.10344934463501</v>
+        <v>4.53263521194458</v>
       </c>
       <c r="FK2">
-        <v>9.145922660827637</v>
+        <v>9.915292739868164</v>
       </c>
       <c r="FL2">
-        <v>4.198053359985352</v>
+        <v>4.009356021881104</v>
       </c>
       <c r="FM2">
-        <v>2.189987659454346</v>
+        <v>2.287097215652466</v>
       </c>
       <c r="FN2">
-        <v>1.556197047233582</v>
+        <v>-0.5369464755058289</v>
       </c>
       <c r="FO2">
-        <v>1.001223921775818</v>
+        <v>1.988511323928833</v>
       </c>
       <c r="FP2">
-        <v>-1.176352500915527</v>
+        <v>-1.234565496444702</v>
       </c>
       <c r="FQ2">
-        <v>0.5842700004577637</v>
+        <v>0.933408260345459</v>
       </c>
       <c r="FR2">
-        <v>1.712041020393372</v>
+        <v>2.738610506057739</v>
       </c>
       <c r="FS2">
-        <v>-1.359936356544495</v>
+        <v>-2.010455369949341</v>
       </c>
       <c r="FT2">
-        <v>-1.696452975273132</v>
+        <v>-1.461313247680664</v>
       </c>
       <c r="FU2">
-        <v>3.464248418807983</v>
+        <v>2.806207418441772</v>
       </c>
       <c r="FV2">
-        <v>-1.218202114105225</v>
+        <v>-0.7008134722709656</v>
       </c>
       <c r="FW2">
-        <v>-3.713212966918945</v>
+        <v>-3.778929948806763</v>
       </c>
       <c r="FX2">
-        <v>0.01402908749878407</v>
+        <v>-0.6399695873260498</v>
       </c>
       <c r="FY2">
-        <v>-0.1198751851916313</v>
+        <v>0.2622902095317841</v>
       </c>
       <c r="FZ2">
-        <v>-0.1210093274712563</v>
+        <v>0.5437256097793579</v>
       </c>
       <c r="GA2">
-        <v>-0.8373785614967346</v>
+        <v>-2.172823667526245</v>
       </c>
       <c r="GB2">
-        <v>-0.8768236041069031</v>
+        <v>-0.7271929979324341</v>
       </c>
       <c r="GC2">
-        <v>1.118839859962463</v>
+        <v>1.123858332633972</v>
       </c>
       <c r="GD2">
-        <v>-0.2867044508457184</v>
+        <v>0.5178805589675903</v>
       </c>
       <c r="GE2">
-        <v>1.487924575805664</v>
+        <v>2.111139059066772</v>
       </c>
       <c r="GF2">
-        <v>1.775168538093567</v>
+        <v>-0.3309971392154694</v>
       </c>
       <c r="GG2">
-        <v>-7.510006904602051</v>
+        <v>-8.739395141601562</v>
       </c>
       <c r="GH2">
-        <v>-0.8269455432891846</v>
+        <v>-1.040595650672913</v>
       </c>
       <c r="GI2">
-        <v>-2.992005825042725</v>
+        <v>-2.89036750793457</v>
       </c>
       <c r="GJ2">
-        <v>-1.914852023124695</v>
+        <v>-0.5026582479476929</v>
       </c>
       <c r="GK2">
-        <v>-0.998253345489502</v>
+        <v>-0.8382670879364014</v>
       </c>
       <c r="GL2">
-        <v>-14.54273509979248</v>
+        <v>-14.81526184082031</v>
       </c>
       <c r="GM2">
-        <v>-6.109345436096191</v>
+        <v>-5.272239208221436</v>
       </c>
       <c r="GN2">
-        <v>0.3579184114933014</v>
+        <v>-0.4833875596523285</v>
       </c>
       <c r="GO2">
-        <v>4.594760894775391</v>
+        <v>5.711917877197266</v>
       </c>
       <c r="GP2">
-        <v>1.170993208885193</v>
+        <v>1.236824035644531</v>
       </c>
       <c r="GQ2">
-        <v>0.5334835648536682</v>
+        <v>-1.087512016296387</v>
       </c>
       <c r="GR2">
-        <v>0.4691158831119537</v>
+        <v>0.4025105834007263</v>
       </c>
       <c r="GS2">
-        <v>-5.87778377532959</v>
+        <v>-5.35375452041626</v>
       </c>
       <c r="GT2">
-        <v>-1.132870674133301</v>
+        <v>-0.7194299101829529</v>
       </c>
       <c r="GU2">
-        <v>-1.835461616516113</v>
+        <v>-0.922463059425354</v>
       </c>
       <c r="GV2">
-        <v>2.943144798278809</v>
+        <v>4.101596355438232</v>
       </c>
       <c r="GW2">
-        <v>-5.847045421600342</v>
+        <v>-5.519721984863281</v>
       </c>
       <c r="GX2">
-        <v>-0.02945659682154655</v>
+        <v>1.096774816513062</v>
       </c>
       <c r="GY2">
-        <v>-4.850480556488037</v>
+        <v>-3.690913200378418</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Automobiles.xlsx
+++ b/static/Models/Classification/Equation/Automobiles.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.576026201248169</v>
+        <v>-2.451242923736572</v>
       </c>
       <c r="C2" t="n">
-        <v>4.94205379486084</v>
+        <v>5.321033000946045</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02055517584085464</v>
+        <v>-0.786833643913269</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.793560743331909</v>
+        <v>-3.173786640167236</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.085288405418396</v>
+        <v>-1.618732333183289</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.340861797332764</v>
+        <v>-2.682809114456177</v>
       </c>
       <c r="H2" t="n">
-        <v>1.490330576896667</v>
+        <v>0.8913150429725647</v>
       </c>
       <c r="I2" t="n">
-        <v>3.628364086151123</v>
+        <v>3.363223791122437</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.037670135498047</v>
+        <v>-6.447044849395752</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.124943971633911</v>
+        <v>-2.878646612167358</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.8778493404388428</v>
+        <v>-1.35434091091156</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4340261220932007</v>
+        <v>-0.8922717571258545</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.066020011901855</v>
+        <v>-1.495798110961914</v>
       </c>
       <c r="O2" t="n">
-        <v>-9.944000244140625</v>
+        <v>-9.392644882202148</v>
       </c>
       <c r="P2" t="n">
-        <v>4.709087371826172</v>
+        <v>5.228492736816406</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.767987728118896</v>
+        <v>-7.202862739562988</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.4996751844882965</v>
+        <v>0.01005579996854067</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.5015966892242432</v>
+        <v>-0.9149371981620789</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.9834600687026978</v>
+        <v>-1.197203278541565</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.736836850643158</v>
+        <v>-1.099114656448364</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.792627453804016</v>
+        <v>-1.226463556289673</v>
       </c>
       <c r="W2" t="n">
-        <v>-5.299124240875244</v>
+        <v>-5.964817523956299</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.6285789012908936</v>
+        <v>-1.301529884338379</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.242586612701416</v>
+        <v>-6.775038242340088</v>
       </c>
       <c r="Z2" t="n">
-        <v>-6.023651123046875</v>
+        <v>-6.532411575317383</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8834275603294373</v>
+        <v>0.4170384109020233</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8459185361862183</v>
+        <v>1.509532570838928</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.93468976020813</v>
+        <v>2.35066556930542</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.849490284919739</v>
+        <v>-2.062442302703857</v>
       </c>
       <c r="AE2" t="n">
-        <v>-8.934142112731934</v>
+        <v>-8.549087524414062</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.33222484588623</v>
+        <v>0.8420148491859436</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.542032241821289</v>
+        <v>4.931300163269043</v>
       </c>
       <c r="AH2" t="n">
-        <v>-5.493427276611328</v>
+        <v>-5.351922512054443</v>
       </c>
       <c r="AI2" t="n">
-        <v>-10.12972831726074</v>
+        <v>-9.569458961486816</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.009904585778713226</v>
+        <v>-0.404446929693222</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.1826360374689102</v>
+        <v>0.1434345245361328</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.2327994406223297</v>
+        <v>-0.2380216419696808</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.66163444519043</v>
+        <v>8.481117248535156</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.47351169586182</v>
+        <v>10.07864952087402</v>
       </c>
       <c r="AO2" t="n">
-        <v>-5.159427165985107</v>
+        <v>-4.672579288482666</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.032761454582214</v>
+        <v>0.8849212527275085</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.9532079100608826</v>
+        <v>0.6706423163414001</v>
       </c>
       <c r="AR2" t="n">
-        <v>12.89115905761719</v>
+        <v>12.44574928283691</v>
       </c>
       <c r="AS2" t="n">
-        <v>12.27680683135986</v>
+        <v>12.79923248291016</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.049047946929932</v>
+        <v>-3.198544025421143</v>
       </c>
       <c r="AU2" t="n">
-        <v>-17.73840713500977</v>
+        <v>-17.59829902648926</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.288301467895508</v>
+        <v>8.864016532897949</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.235035538673401</v>
+        <v>1.337826013565063</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.4758055210113525</v>
+        <v>0.1682259440422058</v>
       </c>
       <c r="AY2" t="n">
-        <v>-4.690916061401367</v>
+        <v>-5.220252990722656</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.8152183294296265</v>
+        <v>0.6787333488464355</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.764572739601135</v>
+        <v>1.769307971000671</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.312516927719116</v>
+        <v>1.750375032424927</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0240643136203289</v>
+        <v>-0.2280313074588776</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.340688705444336</v>
+        <v>-1.383058786392212</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.9753640294075012</v>
+        <v>-0.4350968301296234</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.8111447691917419</v>
+        <v>-0.4165350198745728</v>
       </c>
       <c r="BG2" t="n">
-        <v>3.135000228881836</v>
+        <v>2.939988851547241</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.6270893812179565</v>
+        <v>1.252239346504211</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.889806509017944</v>
+        <v>-2.081740140914917</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.606366157531738</v>
+        <v>4.721002101898193</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.5284754037857056</v>
+        <v>0.05208806693553925</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.3497570753097534</v>
+        <v>-0.4603396952152252</v>
       </c>
       <c r="BM2" t="n">
-        <v>8.848544120788574</v>
+        <v>9.467790603637695</v>
       </c>
       <c r="BN2" t="n">
-        <v>9.973330497741699</v>
+        <v>10.58400344848633</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.517803430557251</v>
+        <v>1.747300267219543</v>
       </c>
       <c r="BP2" t="n">
-        <v>3.317148208618164</v>
+        <v>3.873027086257935</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.697565495967865</v>
+        <v>-0.1336982846260071</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.1648703962564468</v>
+        <v>0.2147361040115356</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.6730526089668274</v>
+        <v>0.3702544271945953</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.006282811984419823</v>
+        <v>-0.3715800344944</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.324820280075073</v>
+        <v>1.619920492172241</v>
       </c>
       <c r="BV2" t="n">
-        <v>-9.523828506469727</v>
+        <v>-9.548017501831055</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.204686164855957</v>
+        <v>1.103902578353882</v>
       </c>
       <c r="BX2" t="n">
-        <v>-11.15134906768799</v>
+        <v>-11.47682094573975</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.502139687538147</v>
+        <v>-1.946353077888489</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-3.739314079284668</v>
+        <v>-4.100540637969971</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.404369831085205</v>
+        <v>2.657756567001343</v>
       </c>
       <c r="CB2" t="n">
-        <v>4.686979293823242</v>
+        <v>4.679708003997803</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.5253583788871765</v>
+        <v>-0.8084865808486938</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.8449516296386719</v>
+        <v>0.3031809628009796</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.8220468759536743</v>
+        <v>-0.2878573834896088</v>
       </c>
       <c r="CF2" t="n">
-        <v>7.848761558532715</v>
+        <v>8.371864318847656</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.2989158630371094</v>
+        <v>-0.6105174422264099</v>
       </c>
       <c r="CH2" t="n">
-        <v>-13.1380443572998</v>
+        <v>-13.50128841400146</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.669774770736694</v>
+        <v>-1.963931679725647</v>
       </c>
       <c r="CJ2" t="n">
-        <v>9.885784149169922</v>
+        <v>9.23097038269043</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.4162032902240753</v>
+        <v>0.008317816071212292</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.7852703332901</v>
+        <v>-1.963530302047729</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.125361442565918</v>
+        <v>-0.4425881803035736</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.2505959272384644</v>
+        <v>0.4989957213401794</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.4879129827022552</v>
+        <v>0.520357072353363</v>
       </c>
       <c r="CP2" t="n">
-        <v>-2.463125228881836</v>
+        <v>-2.046025991439819</v>
       </c>
       <c r="CQ2" t="n">
-        <v>14.51039218902588</v>
+        <v>15.21428489685059</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.1923577189445496</v>
+        <v>0.5507548451423645</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.1809740960597992</v>
+        <v>-0.2654309272766113</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.972684383392334</v>
+        <v>0.6726542115211487</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.3173658549785614</v>
+        <v>-0.01488112844526768</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.3387301862239838</v>
+        <v>1.030258655548096</v>
       </c>
       <c r="CW2" t="n">
-        <v>-13.18916320800781</v>
+        <v>-12.38032531738281</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.06611472368240356</v>
+        <v>-0.5132041573524475</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.292272806167603</v>
+        <v>1.472799062728882</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.5819324851036072</v>
+        <v>1.083822846412659</v>
       </c>
       <c r="DA2" t="n">
-        <v>2.546308755874634</v>
+        <v>1.98276162147522</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.3061925768852234</v>
+        <v>-0.6501755714416504</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.130520701408386</v>
+        <v>-0.6523128747940063</v>
       </c>
       <c r="DD2" t="n">
-        <v>-10.1683931350708</v>
+        <v>-10.20034027099609</v>
       </c>
       <c r="DE2" t="n">
-        <v>3.501853466033936</v>
+        <v>3.265449523925781</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.099189758300781</v>
+        <v>4.550514698028564</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.393932044506073</v>
+        <v>-0.6785919070243835</v>
       </c>
       <c r="DH2" t="n">
-        <v>-2.920307874679565</v>
+        <v>-3.479480504989624</v>
       </c>
       <c r="DI2" t="n">
-        <v>-3.925582885742188</v>
+        <v>-3.434579372406006</v>
       </c>
       <c r="DJ2" t="n">
-        <v>4.440409183502197</v>
+        <v>4.84120512008667</v>
       </c>
       <c r="DK2" t="n">
-        <v>-12.86822509765625</v>
+        <v>-13.00793743133545</v>
       </c>
       <c r="DL2" t="n">
-        <v>-16.21364974975586</v>
+        <v>-15.54749965667725</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.1649305671453476</v>
+        <v>0.8630466461181641</v>
       </c>
       <c r="DN2" t="n">
-        <v>2.207306623458862</v>
+        <v>2.027037620544434</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.003863096237183</v>
+        <v>1.492834329605103</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.846515297889709</v>
+        <v>1.387961506843567</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.618277311325073</v>
+        <v>2.404345273971558</v>
       </c>
       <c r="DR2" t="n">
-        <v>3.251811027526855</v>
+        <v>2.497615098953247</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.3097745776176453</v>
+        <v>0.2634439170360565</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.35156261920929</v>
+        <v>-0.7088713049888611</v>
       </c>
       <c r="DU2" t="n">
-        <v>5.383817195892334</v>
+        <v>6.099366188049316</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.6107149124145508</v>
+        <v>-0.8677657842636108</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.150596261024475</v>
+        <v>-0.5293161273002625</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.378222465515137</v>
+        <v>2.102755546569824</v>
       </c>
       <c r="DY2" t="n">
-        <v>8.918525695800781</v>
+        <v>8.290793418884277</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.4072286784648895</v>
+        <v>-0.6062210202217102</v>
       </c>
       <c r="EA2" t="n">
-        <v>-2.915364027023315</v>
+        <v>-3.573192358016968</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.859222412109375</v>
+        <v>-1.109167575836182</v>
       </c>
       <c r="EC2" t="n">
-        <v>-2.266208410263062</v>
+        <v>-1.664024233818054</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.528933763504028</v>
+        <v>2.375358104705811</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.772560358047485</v>
+        <v>-2.021770715713501</v>
       </c>
       <c r="EF2" t="n">
-        <v>-3.18323540687561</v>
+        <v>-3.791144371032715</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.155181765556335</v>
+        <v>-1.0422043800354</v>
       </c>
       <c r="EH2" t="n">
-        <v>-14.30829048156738</v>
+        <v>-13.76884269714355</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.1359675824642181</v>
+        <v>-0.1791592836380005</v>
       </c>
       <c r="EJ2" t="n">
-        <v>10.95881366729736</v>
+        <v>10.46567630767822</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.6837547421455383</v>
+        <v>-0.8258373141288757</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.04695126786828041</v>
+        <v>-0.01509961672127247</v>
       </c>
       <c r="EM2" t="n">
-        <v>-3.892199993133545</v>
+        <v>-4.240883350372314</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.3468804061412811</v>
+        <v>0.8733951449394226</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.457180857658386</v>
+        <v>1.143834114074707</v>
       </c>
       <c r="EP2" t="n">
-        <v>-9.035776138305664</v>
+        <v>-9.452987670898438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-3.503603935241699</v>
+        <v>-4.093173980712891</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.7883639931678772</v>
+        <v>-0.458060085773468</v>
       </c>
       <c r="ES2" t="n">
-        <v>-17.2695198059082</v>
+        <v>-16.57367134094238</v>
       </c>
       <c r="ET2" t="n">
-        <v>5.223484992980957</v>
+        <v>4.798168182373047</v>
       </c>
       <c r="EU2" t="n">
-        <v>11.01233196258545</v>
+        <v>11.65137195587158</v>
       </c>
       <c r="EV2" t="n">
-        <v>4.067759037017822</v>
+        <v>4.788173198699951</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.01798798888921738</v>
+        <v>-0.609880268573761</v>
       </c>
       <c r="EX2" t="n">
-        <v>-8.859028816223145</v>
+        <v>-9.637167930603027</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.39186680316925</v>
+        <v>1.615885734558105</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-2.857341527938843</v>
+        <v>-3.449924945831299</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.7515957951545715</v>
+        <v>1.302811503410339</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.2730896472930908</v>
+        <v>-0.004292512778192759</v>
       </c>
       <c r="FC2" t="n">
-        <v>-3.885498523712158</v>
+        <v>-4.532460689544678</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.072026371955872</v>
+        <v>-1.436510443687439</v>
       </c>
       <c r="FE2" t="n">
-        <v>-3.145641326904297</v>
+        <v>-2.59443187713623</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.078606128692627</v>
+        <v>1.93841290473938</v>
       </c>
       <c r="FG2" t="n">
-        <v>-4.028906345367432</v>
+        <v>-4.452305316925049</v>
       </c>
       <c r="FH2" t="n">
-        <v>2.161451816558838</v>
+        <v>1.552089691162109</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.7434014081954956</v>
+        <v>1.369611978530884</v>
       </c>
       <c r="FJ2" t="n">
-        <v>4.965049266815186</v>
+        <v>5.699016571044922</v>
       </c>
       <c r="FK2" t="n">
-        <v>10.06949424743652</v>
+        <v>10.43717861175537</v>
       </c>
       <c r="FL2" t="n">
-        <v>4.569294452667236</v>
+        <v>4.169045925140381</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.936764478683472</v>
+        <v>2.534683704376221</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.002992464695125818</v>
+        <v>-0.1788953840732574</v>
       </c>
       <c r="FO2" t="n">
-        <v>2.414962291717529</v>
+        <v>2.845141172409058</v>
       </c>
       <c r="FP2" t="n">
-        <v>-1.750533103942871</v>
+        <v>-2.459143161773682</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.4929185807704926</v>
+        <v>0.5718171000480652</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.288909912109375</v>
+        <v>2.057184934616089</v>
       </c>
       <c r="FS2" t="n">
-        <v>-1.657789468765259</v>
+        <v>-1.945611596107483</v>
       </c>
       <c r="FT2" t="n">
-        <v>-1.923250198364258</v>
+        <v>-1.941107034683228</v>
       </c>
       <c r="FU2" t="n">
-        <v>2.643027305603027</v>
+        <v>2.496271133422852</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.07323548942804337</v>
+        <v>0.3005930483341217</v>
       </c>
       <c r="FW2" t="n">
-        <v>-4.130731582641602</v>
+        <v>-4.447102069854736</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.2383640557527542</v>
+        <v>-0.7629551291465759</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.7976993322372437</v>
+        <v>1.356829643249512</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.25466513633728</v>
+        <v>1.80032742023468</v>
       </c>
       <c r="GA2" t="n">
-        <v>-2.761817932128906</v>
+        <v>-3.265888929367065</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.3417129218578339</v>
+        <v>0.122620664536953</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.650775671005249</v>
+        <v>2.258181571960449</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.074384808540344</v>
+        <v>1.5521399974823</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.680844664573669</v>
+        <v>1.624047040939331</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.8145301342010498</v>
+        <v>-0.5975514054298401</v>
       </c>
       <c r="GG2" t="n">
-        <v>-9.238966941833496</v>
+        <v>-8.569357872009277</v>
       </c>
       <c r="GH2" t="n">
-        <v>-1.513562440872192</v>
+        <v>-0.7109842896461487</v>
       </c>
       <c r="GI2" t="n">
-        <v>-2.35955023765564</v>
+        <v>-1.446732759475708</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.07678893953561783</v>
+        <v>0.5020642280578613</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.5957229733467102</v>
+        <v>-1.093429923057556</v>
       </c>
       <c r="GL2" t="n">
-        <v>-15.33190631866455</v>
+        <v>-14.46915054321289</v>
       </c>
       <c r="GM2" t="n">
-        <v>-4.698768615722656</v>
+        <v>-5.108627796173096</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.1033244729042053</v>
+        <v>-0.3482242524623871</v>
       </c>
       <c r="GO2" t="n">
-        <v>6.12024974822998</v>
+        <v>6.682547092437744</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.377548217773438</v>
+        <v>1.097424626350403</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.8633966445922852</v>
+        <v>-0.7721039056777954</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.8721367716789246</v>
+        <v>1.283242225646973</v>
       </c>
       <c r="GS2" t="n">
-        <v>-5.675415515899658</v>
+        <v>-5.069342613220215</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.1890129595994949</v>
+        <v>-0.6181614995002747</v>
       </c>
       <c r="GU2" t="n">
-        <v>-1.49319863319397</v>
+        <v>-1.362887859344482</v>
       </c>
       <c r="GV2" t="n">
-        <v>3.602692604064941</v>
+        <v>4.031354427337646</v>
       </c>
       <c r="GW2" t="n">
-        <v>-4.995598793029785</v>
+        <v>-3.941183567047119</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.5565643906593323</v>
+        <v>0.3809367716312408</v>
       </c>
       <c r="GY2" t="n">
-        <v>-4.0994873046875</v>
+        <v>-4.304111957550049</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Automobiles.xlsx
+++ b/static/Models/Classification/Equation/Automobiles.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.451242923736572</v>
+        <v>-1.974450349807739</v>
       </c>
       <c r="C2" t="n">
-        <v>5.321033000946045</v>
+        <v>5.417754173278809</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.786833643913269</v>
+        <v>-1.055091381072998</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.173786640167236</v>
+        <v>-2.513006687164307</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.618732333183289</v>
+        <v>-0.9416800737380981</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.682809114456177</v>
+        <v>-1.900308966636658</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8913150429725647</v>
+        <v>-0.009180780500173569</v>
       </c>
       <c r="I2" t="n">
-        <v>3.363223791122437</v>
+        <v>3.181096792221069</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.447044849395752</v>
+        <v>-6.038012504577637</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.878646612167358</v>
+        <v>-3.545680999755859</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.35434091091156</v>
+        <v>-0.4908596277236938</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8922717571258545</v>
+        <v>-0.2433106899261475</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.495798110961914</v>
+        <v>-0.8811262845993042</v>
       </c>
       <c r="O2" t="n">
-        <v>-9.392644882202148</v>
+        <v>-8.412094116210938</v>
       </c>
       <c r="P2" t="n">
-        <v>5.228492736816406</v>
+        <v>5.450903415679932</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.202862739562988</v>
+        <v>-7.336522102355957</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01005579996854067</v>
+        <v>-0.6523716449737549</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.9149371981620789</v>
+        <v>-1.505512237548828</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.197203278541565</v>
+        <v>-1.367072701454163</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.099114656448364</v>
+        <v>-0.1281678378582001</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.226463556289673</v>
+        <v>-0.8976611495018005</v>
       </c>
       <c r="W2" t="n">
-        <v>-5.964817523956299</v>
+        <v>-5.043786525726318</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.301529884338379</v>
+        <v>-2.217733383178711</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.775038242340088</v>
+        <v>-6.08363676071167</v>
       </c>
       <c r="Z2" t="n">
-        <v>-6.532411575317383</v>
+        <v>-5.814818382263184</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4170384109020233</v>
+        <v>0.4637529850006104</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.509532570838928</v>
+        <v>0.8416721820831299</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.35066556930542</v>
+        <v>2.717010259628296</v>
       </c>
       <c r="AD2" t="n">
-        <v>-2.062442302703857</v>
+        <v>-2.164843559265137</v>
       </c>
       <c r="AE2" t="n">
-        <v>-8.549087524414062</v>
+        <v>-8.931614875793457</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8420148491859436</v>
+        <v>0.8098119497299194</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.931300163269043</v>
+        <v>4.28184986114502</v>
       </c>
       <c r="AH2" t="n">
-        <v>-5.351922512054443</v>
+        <v>-4.355226993560791</v>
       </c>
       <c r="AI2" t="n">
-        <v>-9.569458961486816</v>
+        <v>-8.997306823730469</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.404446929693222</v>
+        <v>-0.6846156120300293</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1434345245361328</v>
+        <v>0.370577484369278</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2380216419696808</v>
+        <v>-0.8598697185516357</v>
       </c>
       <c r="AM2" t="n">
-        <v>8.481117248535156</v>
+        <v>7.885294914245605</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.07864952087402</v>
+        <v>10.92710113525391</v>
       </c>
       <c r="AO2" t="n">
-        <v>-4.672579288482666</v>
+        <v>-4.081804752349854</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.8849212527275085</v>
+        <v>1.799224376678467</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6706423163414001</v>
+        <v>0.07059641182422638</v>
       </c>
       <c r="AR2" t="n">
-        <v>12.44574928283691</v>
+        <v>11.65248489379883</v>
       </c>
       <c r="AS2" t="n">
-        <v>12.79923248291016</v>
+        <v>13.65037155151367</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.198544025421143</v>
+        <v>-2.706828832626343</v>
       </c>
       <c r="AU2" t="n">
-        <v>-17.59829902648926</v>
+        <v>-17.44940948486328</v>
       </c>
       <c r="AV2" t="n">
-        <v>8.864016532897949</v>
+        <v>9.622809410095215</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.337826013565063</v>
+        <v>1.571622610092163</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1682259440422058</v>
+        <v>-0.7454602718353271</v>
       </c>
       <c r="AY2" t="n">
-        <v>-5.220252990722656</v>
+        <v>-5.904303073883057</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.6787333488464355</v>
+        <v>0.3315795958042145</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.769307971000671</v>
+        <v>0.9741939902305603</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.750375032424927</v>
+        <v>2.421247482299805</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.2280313074588776</v>
+        <v>-0.9727221727371216</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.383058786392212</v>
+        <v>-1.52776837348938</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.4350968301296234</v>
+        <v>-0.8582879304885864</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.4165350198745728</v>
+        <v>0.2838107943534851</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.939988851547241</v>
+        <v>2.73901629447937</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.252239346504211</v>
+        <v>0.5560736060142517</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2.081740140914917</v>
+        <v>-1.812895894050598</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.721002101898193</v>
+        <v>5.386789798736572</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.05208806693553925</v>
+        <v>-0.6457213759422302</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.4603396952152252</v>
+        <v>-0.1939062029123306</v>
       </c>
       <c r="BM2" t="n">
-        <v>9.467790603637695</v>
+        <v>10.29848289489746</v>
       </c>
       <c r="BN2" t="n">
-        <v>10.58400344848633</v>
+        <v>11.30229377746582</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.747300267219543</v>
+        <v>0.9052337408065796</v>
       </c>
       <c r="BP2" t="n">
-        <v>3.873027086257935</v>
+        <v>3.330159425735474</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.1336982846260071</v>
+        <v>0.7399761080741882</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.2147361040115356</v>
+        <v>0.8693326115608215</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.3702544271945953</v>
+        <v>-0.3638717234134674</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.3715800344944</v>
+        <v>-0.4723694622516632</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.619920492172241</v>
+        <v>1.351970076560974</v>
       </c>
       <c r="BV2" t="n">
-        <v>-9.548017501831055</v>
+        <v>-8.793827056884766</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.103902578353882</v>
+        <v>0.3057560622692108</v>
       </c>
       <c r="BX2" t="n">
-        <v>-11.47682094573975</v>
+        <v>-11.32765293121338</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.946353077888489</v>
+        <v>-1.401956558227539</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-4.100540637969971</v>
+        <v>-3.989816188812256</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.657756567001343</v>
+        <v>1.964705228805542</v>
       </c>
       <c r="CB2" t="n">
-        <v>4.679708003997803</v>
+        <v>5.445464611053467</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.8084865808486938</v>
+        <v>-1.008000016212463</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.3031809628009796</v>
+        <v>1.041075587272644</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.2878573834896088</v>
+        <v>0.3279764652252197</v>
       </c>
       <c r="CF2" t="n">
-        <v>8.371864318847656</v>
+        <v>8.910541534423828</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.6105174422264099</v>
+        <v>-1.259827494621277</v>
       </c>
       <c r="CH2" t="n">
-        <v>-13.50128841400146</v>
+        <v>-13.02486133575439</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.963931679725647</v>
+        <v>-2.225226402282715</v>
       </c>
       <c r="CJ2" t="n">
-        <v>9.23097038269043</v>
+        <v>8.306056022644043</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.008317816071212292</v>
+        <v>-0.2407512366771698</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.963530302047729</v>
+        <v>-2.212943553924561</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.4425881803035736</v>
+        <v>0.3349475264549255</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.4989957213401794</v>
+        <v>1.301511764526367</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.520357072353363</v>
+        <v>0.5422129034996033</v>
       </c>
       <c r="CP2" t="n">
-        <v>-2.046025991439819</v>
+        <v>-1.661051869392395</v>
       </c>
       <c r="CQ2" t="n">
-        <v>15.21428489685059</v>
+        <v>16.16836357116699</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.5507548451423645</v>
+        <v>-0.2825061082839966</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.2654309272766113</v>
+        <v>-0.256814181804657</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.6726542115211487</v>
+        <v>0.4257177710533142</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.01488112844526768</v>
+        <v>-0.9129945635795593</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.030258655548096</v>
+        <v>0.05010326951742172</v>
       </c>
       <c r="CW2" t="n">
-        <v>-12.38032531738281</v>
+        <v>-11.41086578369141</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.5132041573524475</v>
+        <v>-1.078772664070129</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.472799062728882</v>
+        <v>1.285825371742249</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.083822846412659</v>
+        <v>1.380024075508118</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.98276162147522</v>
+        <v>2.330837488174438</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.6501755714416504</v>
+        <v>-1.232098817825317</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.6523128747940063</v>
+        <v>0.1875165104866028</v>
       </c>
       <c r="DD2" t="n">
-        <v>-10.20034027099609</v>
+        <v>-9.66768741607666</v>
       </c>
       <c r="DE2" t="n">
-        <v>3.265449523925781</v>
+        <v>3.031139135360718</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.550514698028564</v>
+        <v>4.455895900726318</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.6785919070243835</v>
+        <v>-0.5745131969451904</v>
       </c>
       <c r="DH2" t="n">
-        <v>-3.479480504989624</v>
+        <v>-4.18292760848999</v>
       </c>
       <c r="DI2" t="n">
-        <v>-3.434579372406006</v>
+        <v>-4.038546085357666</v>
       </c>
       <c r="DJ2" t="n">
-        <v>4.84120512008667</v>
+        <v>5.658767700195312</v>
       </c>
       <c r="DK2" t="n">
-        <v>-13.00793743133545</v>
+        <v>-13.75589561462402</v>
       </c>
       <c r="DL2" t="n">
-        <v>-15.54749965667725</v>
+        <v>-14.84290599822998</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.8630466461181641</v>
+        <v>0.07529409229755402</v>
       </c>
       <c r="DN2" t="n">
-        <v>2.027037620544434</v>
+        <v>1.778513550758362</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.492834329605103</v>
+        <v>1.814665079116821</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.387961506843567</v>
+        <v>1.744198083877563</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.404345273971558</v>
+        <v>2.384270906448364</v>
       </c>
       <c r="DR2" t="n">
-        <v>2.497615098953247</v>
+        <v>1.732988357543945</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.2634439170360565</v>
+        <v>-0.4250223934650421</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.7088713049888611</v>
+        <v>-0.1578973978757858</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.099366188049316</v>
+        <v>6.186153411865234</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.8677657842636108</v>
+        <v>-0.08756609261035919</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.5293161273002625</v>
+        <v>-0.2884553372859955</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.102755546569824</v>
+        <v>1.863623380661011</v>
       </c>
       <c r="DY2" t="n">
-        <v>8.290793418884277</v>
+        <v>7.410484790802002</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.6062210202217102</v>
+        <v>0.2477592676877975</v>
       </c>
       <c r="EA2" t="n">
-        <v>-3.573192358016968</v>
+        <v>-4.427458763122559</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.109167575836182</v>
+        <v>-1.196194052696228</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.664024233818054</v>
+        <v>-1.186720967292786</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.375358104705811</v>
+        <v>2.184033632278442</v>
       </c>
       <c r="EE2" t="n">
-        <v>-2.021770715713501</v>
+        <v>-2.188049554824829</v>
       </c>
       <c r="EF2" t="n">
-        <v>-3.791144371032715</v>
+        <v>-4.575302600860596</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.0422043800354</v>
+        <v>-1.755420923233032</v>
       </c>
       <c r="EH2" t="n">
-        <v>-13.76884269714355</v>
+        <v>-13.13650703430176</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.1791592836380005</v>
+        <v>-0.1979333162307739</v>
       </c>
       <c r="EJ2" t="n">
-        <v>10.46567630767822</v>
+        <v>10.21594619750977</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.8258373141288757</v>
+        <v>-1.043596863746643</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.01509961672127247</v>
+        <v>-0.09797990322113037</v>
       </c>
       <c r="EM2" t="n">
-        <v>-4.240883350372314</v>
+        <v>-4.720461845397949</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.8733951449394226</v>
+        <v>1.648882269859314</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.143834114074707</v>
+        <v>0.3303188383579254</v>
       </c>
       <c r="EP2" t="n">
-        <v>-9.452987670898438</v>
+        <v>-10.14940738677979</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-4.093173980712891</v>
+        <v>-4.496439456939697</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.458060085773468</v>
+        <v>-0.9997091293334961</v>
       </c>
       <c r="ES2" t="n">
-        <v>-16.57367134094238</v>
+        <v>-16.0391902923584</v>
       </c>
       <c r="ET2" t="n">
-        <v>4.798168182373047</v>
+        <v>5.013261318206787</v>
       </c>
       <c r="EU2" t="n">
-        <v>11.65137195587158</v>
+        <v>11.57876873016357</v>
       </c>
       <c r="EV2" t="n">
-        <v>4.788173198699951</v>
+        <v>5.728147983551025</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.609880268573761</v>
+        <v>-1.463611125946045</v>
       </c>
       <c r="EX2" t="n">
-        <v>-9.637167930603027</v>
+        <v>-9.501413345336914</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.615885734558105</v>
+        <v>1.464141845703125</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-3.449924945831299</v>
+        <v>-4.302170753479004</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.302811503410339</v>
+        <v>0.580572247505188</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.004292512778192759</v>
+        <v>-0.1747972220182419</v>
       </c>
       <c r="FC2" t="n">
-        <v>-4.532460689544678</v>
+        <v>-5.271093845367432</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.436510443687439</v>
+        <v>-0.9245746731758118</v>
       </c>
       <c r="FE2" t="n">
-        <v>-2.59443187713623</v>
+        <v>-3.369684934616089</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.93841290473938</v>
+        <v>2.822755098342896</v>
       </c>
       <c r="FG2" t="n">
-        <v>-4.452305316925049</v>
+        <v>-3.703655958175659</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.552089691162109</v>
+        <v>0.8198803663253784</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.369611978530884</v>
+        <v>1.308355450630188</v>
       </c>
       <c r="FJ2" t="n">
-        <v>5.699016571044922</v>
+        <v>5.06165599822998</v>
       </c>
       <c r="FK2" t="n">
-        <v>10.43717861175537</v>
+        <v>9.57875919342041</v>
       </c>
       <c r="FL2" t="n">
-        <v>4.169045925140381</v>
+        <v>3.396647691726685</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.534683704376221</v>
+        <v>3.067013025283813</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.1788953840732574</v>
+        <v>0.1448404043912888</v>
       </c>
       <c r="FO2" t="n">
-        <v>2.845141172409058</v>
+        <v>2.162496566772461</v>
       </c>
       <c r="FP2" t="n">
-        <v>-2.459143161773682</v>
+        <v>-1.984145402908325</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.5718171000480652</v>
+        <v>0.627011239528656</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.057184934616089</v>
+        <v>1.91440486907959</v>
       </c>
       <c r="FS2" t="n">
-        <v>-1.945611596107483</v>
+        <v>-2.150808334350586</v>
       </c>
       <c r="FT2" t="n">
-        <v>-1.941107034683228</v>
+        <v>-1.881760597229004</v>
       </c>
       <c r="FU2" t="n">
-        <v>2.496271133422852</v>
+        <v>2.708025932312012</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.3005930483341217</v>
+        <v>0.03332701697945595</v>
       </c>
       <c r="FW2" t="n">
-        <v>-4.447102069854736</v>
+        <v>-4.407821655273438</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.7629551291465759</v>
+        <v>-1.097168684005737</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.356829643249512</v>
+        <v>2.001415252685547</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.80032742023468</v>
+        <v>1.903560042381287</v>
       </c>
       <c r="GA2" t="n">
-        <v>-3.265888929367065</v>
+        <v>-3.861255645751953</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.122620664536953</v>
+        <v>0.770216166973114</v>
       </c>
       <c r="GC2" t="n">
-        <v>2.258181571960449</v>
+        <v>3.076085090637207</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.5521399974823</v>
+        <v>2.384806394577026</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.624047040939331</v>
+        <v>1.603245973587036</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.5975514054298401</v>
+        <v>-0.8997212052345276</v>
       </c>
       <c r="GG2" t="n">
-        <v>-8.569357872009277</v>
+        <v>-8.760651588439941</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.7109842896461487</v>
+        <v>0.3375853598117828</v>
       </c>
       <c r="GI2" t="n">
-        <v>-1.446732759475708</v>
+        <v>-2.062218189239502</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.5020642280578613</v>
+        <v>1.173506498336792</v>
       </c>
       <c r="GK2" t="n">
-        <v>-1.093429923057556</v>
+        <v>-0.2365942299365997</v>
       </c>
       <c r="GL2" t="n">
-        <v>-14.46915054321289</v>
+        <v>-13.70567989349365</v>
       </c>
       <c r="GM2" t="n">
-        <v>-5.108627796173096</v>
+        <v>-6.036759853363037</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.3482242524623871</v>
+        <v>0.5165300369262695</v>
       </c>
       <c r="GO2" t="n">
-        <v>6.682547092437744</v>
+        <v>5.959326267242432</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.097424626350403</v>
+        <v>1.082233071327209</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.7721039056777954</v>
+        <v>-0.3133005201816559</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.283242225646973</v>
+        <v>2.227744817733765</v>
       </c>
       <c r="GS2" t="n">
-        <v>-5.069342613220215</v>
+        <v>-6.026106834411621</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.6181614995002747</v>
+        <v>0.2081092298030853</v>
       </c>
       <c r="GU2" t="n">
-        <v>-1.362887859344482</v>
+        <v>-1.107694983482361</v>
       </c>
       <c r="GV2" t="n">
-        <v>4.031354427337646</v>
+        <v>3.402255296707153</v>
       </c>
       <c r="GW2" t="n">
-        <v>-3.941183567047119</v>
+        <v>-4.521996021270752</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.3809367716312408</v>
+        <v>0.4819627106189728</v>
       </c>
       <c r="GY2" t="n">
-        <v>-4.304111957550049</v>
+        <v>-4.426612377166748</v>
       </c>
     </row>
   </sheetData>
